--- a/My Sets/Rez (Dreamcast)/Rez - Plan.xlsx
+++ b/My Sets/Rez (Dreamcast)/Rez - Plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Rez\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Dropbox\RetroArch\Achievements\Rez (Dreamcast)\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704" activeTab="5"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="704"/>
   </bookViews>
   <sheets>
     <sheet name="Achievements" sheetId="2" r:id="rId1"/>
@@ -17,14 +17,16 @@
     <sheet name="Text Conversion" sheetId="51" r:id="rId3"/>
     <sheet name="Extras" sheetId="15" r:id="rId4"/>
     <sheet name="Leaderboards" sheetId="27" r:id="rId5"/>
-    <sheet name="Checklist" sheetId="49" r:id="rId6"/>
-    <sheet name="Text" sheetId="11" r:id="rId7"/>
-    <sheet name="Stats" sheetId="7" r:id="rId8"/>
-    <sheet name="Game Dec" sheetId="16" state="hidden" r:id="rId9"/>
+    <sheet name="Checklist EU" sheetId="52" r:id="rId6"/>
+    <sheet name="Checklist JPN" sheetId="49" r:id="rId7"/>
+    <sheet name="Text" sheetId="11" r:id="rId8"/>
+    <sheet name="Stats" sheetId="7" r:id="rId9"/>
+    <sheet name="Game Dec" sheetId="16" state="hidden" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Achievements!$B$1:$G$218</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Checklist!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Checklist EU'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Checklist JPN'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Extras!$A$1:$F$61</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="243">
   <si>
     <t>Description</t>
   </si>
@@ -594,24 +596,9 @@
     <t>Complete Direct Assault Old-school</t>
   </si>
   <si>
-    <t>Beat Area 1 without Evolving (form level 2 or lower)</t>
-  </si>
-  <si>
-    <t>Beat Area 2 without Evolving (form level 2 or lower)</t>
-  </si>
-  <si>
-    <t>Beat Area 3 without Evolving (form level 2 or lower)</t>
-  </si>
-  <si>
-    <t>Beat Area 4 without Evolving (form level 2 or lower)</t>
-  </si>
-  <si>
     <t>Beat Area 5 without Evolving (form level 2 or lower)</t>
   </si>
   <si>
-    <t>Beat Lost Area without Evolving (form level 2 or lower)</t>
-  </si>
-  <si>
     <t>Eden High Score</t>
   </si>
   <si>
@@ -763,6 +750,33 @@
   </si>
   <si>
     <t>Score more than 150,000 in the Trance Mission</t>
+  </si>
+  <si>
+    <t>HDR-0178</t>
+  </si>
+  <si>
+    <t>MK-5119250</t>
+  </si>
+  <si>
+    <t>Japan GD-ROM Name</t>
+  </si>
+  <si>
+    <t>EU GD-ROM Name</t>
+  </si>
+  <si>
+    <t>Beat Lost Area without evolving past the default starting level 1 form</t>
+  </si>
+  <si>
+    <t>Beat Area 4 without evolving past the default starting level 1 form in play or score attack mode</t>
+  </si>
+  <si>
+    <t>Beat Area 3 without evolving past the default starting level 1 form in play or score attack mode</t>
+  </si>
+  <si>
+    <t>Beat Area 2 without evolving past the default starting level 1 form in play or score attack mode</t>
+  </si>
+  <si>
+    <t>Beat Area 1 without evolving past the default starting level 1 form in play or score attack mode</t>
   </si>
 </sst>
 </file>
@@ -1131,8 +1145,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G218"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1329,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1840,7 +1854,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,7 +1875,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>183</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1882,7 +1896,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1903,7 +1917,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1924,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2039,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>13</v>
@@ -2799,6 +2813,1793 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="21" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8">
+        <v>9</v>
+      </c>
+      <c r="L1" s="8">
+        <v>10</v>
+      </c>
+      <c r="M1" s="8">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="8">
+        <v>13</v>
+      </c>
+      <c r="P1" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>15</v>
+      </c>
+      <c r="R1" s="8">
+        <v>16</v>
+      </c>
+      <c r="S1" s="8">
+        <v>17</v>
+      </c>
+      <c r="T1" s="8">
+        <v>18</v>
+      </c>
+      <c r="U1" s="8">
+        <v>19</v>
+      </c>
+      <c r="V1" s="8"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>38912</v>
+      </c>
+      <c r="C2" s="8">
+        <f>B2+1</f>
+        <v>38913</v>
+      </c>
+      <c r="D2" s="8">
+        <f t="shared" ref="D2:U5" si="0">C2+1</f>
+        <v>38914</v>
+      </c>
+      <c r="E2" s="8">
+        <f t="shared" si="0"/>
+        <v>38915</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" si="0"/>
+        <v>38916</v>
+      </c>
+      <c r="G2" s="8">
+        <f t="shared" si="0"/>
+        <v>38917</v>
+      </c>
+      <c r="H2" s="8">
+        <f t="shared" si="0"/>
+        <v>38918</v>
+      </c>
+      <c r="I2" s="8">
+        <f t="shared" si="0"/>
+        <v>38919</v>
+      </c>
+      <c r="J2" s="8">
+        <f t="shared" si="0"/>
+        <v>38920</v>
+      </c>
+      <c r="K2" s="8">
+        <f t="shared" si="0"/>
+        <v>38921</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" si="0"/>
+        <v>38922</v>
+      </c>
+      <c r="M2" s="8">
+        <f t="shared" si="0"/>
+        <v>38923</v>
+      </c>
+      <c r="N2" s="8">
+        <f t="shared" si="0"/>
+        <v>38924</v>
+      </c>
+      <c r="O2" s="8">
+        <f t="shared" si="0"/>
+        <v>38925</v>
+      </c>
+      <c r="P2" s="8">
+        <f t="shared" si="0"/>
+        <v>38926</v>
+      </c>
+      <c r="Q2" s="8">
+        <f t="shared" si="0"/>
+        <v>38927</v>
+      </c>
+      <c r="R2" s="8">
+        <f t="shared" si="0"/>
+        <v>38928</v>
+      </c>
+      <c r="S2" s="8">
+        <f t="shared" si="0"/>
+        <v>38929</v>
+      </c>
+      <c r="T2" s="8">
+        <f t="shared" si="0"/>
+        <v>38930</v>
+      </c>
+      <c r="U2" s="8">
+        <f t="shared" si="0"/>
+        <v>38931</v>
+      </c>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8">
+        <f>B2+32</f>
+        <v>38944</v>
+      </c>
+      <c r="C3" s="8">
+        <f t="shared" ref="C3:R5" si="1">B3+1</f>
+        <v>38945</v>
+      </c>
+      <c r="D3" s="8">
+        <f t="shared" si="1"/>
+        <v>38946</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" si="1"/>
+        <v>38947</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="1"/>
+        <v>38948</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" si="1"/>
+        <v>38949</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" si="1"/>
+        <v>38950</v>
+      </c>
+      <c r="I3" s="8">
+        <f t="shared" si="1"/>
+        <v>38951</v>
+      </c>
+      <c r="J3" s="8">
+        <f t="shared" si="1"/>
+        <v>38952</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" si="1"/>
+        <v>38953</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" si="1"/>
+        <v>38954</v>
+      </c>
+      <c r="M3" s="8">
+        <f t="shared" si="1"/>
+        <v>38955</v>
+      </c>
+      <c r="N3" s="8">
+        <f t="shared" si="1"/>
+        <v>38956</v>
+      </c>
+      <c r="O3" s="8">
+        <f t="shared" si="1"/>
+        <v>38957</v>
+      </c>
+      <c r="P3" s="8">
+        <f t="shared" si="1"/>
+        <v>38958</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" si="1"/>
+        <v>38959</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" si="1"/>
+        <v>38960</v>
+      </c>
+      <c r="S3" s="8">
+        <f t="shared" si="0"/>
+        <v>38961</v>
+      </c>
+      <c r="T3" s="8">
+        <f t="shared" si="0"/>
+        <v>38962</v>
+      </c>
+      <c r="U3" s="8">
+        <f t="shared" si="0"/>
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8">
+        <f>B3+32</f>
+        <v>38976</v>
+      </c>
+      <c r="C4" s="8">
+        <f t="shared" si="1"/>
+        <v>38977</v>
+      </c>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
+        <v>38978</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>38979</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
+        <v>38980</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>38981</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>38982</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" si="0"/>
+        <v>38983</v>
+      </c>
+      <c r="J4" s="8">
+        <f t="shared" si="0"/>
+        <v>38984</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" si="0"/>
+        <v>38985</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="0"/>
+        <v>38986</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" si="0"/>
+        <v>38987</v>
+      </c>
+      <c r="N4" s="8">
+        <f t="shared" si="0"/>
+        <v>38988</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" si="0"/>
+        <v>38989</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" si="0"/>
+        <v>38990</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="0"/>
+        <v>38991</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" si="0"/>
+        <v>38992</v>
+      </c>
+      <c r="S4" s="8">
+        <f t="shared" si="0"/>
+        <v>38993</v>
+      </c>
+      <c r="T4" s="8">
+        <f t="shared" si="0"/>
+        <v>38994</v>
+      </c>
+      <c r="U4" s="8">
+        <f t="shared" si="0"/>
+        <v>38995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8">
+        <f t="shared" ref="B5:B21" si="2">B4+32</f>
+        <v>39008</v>
+      </c>
+      <c r="C5" s="8">
+        <f t="shared" si="1"/>
+        <v>39009</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>39010</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>39011</v>
+      </c>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>39012</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>39013</v>
+      </c>
+      <c r="H5" s="8">
+        <f t="shared" si="0"/>
+        <v>39014</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>39015</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="0"/>
+        <v>39016</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="0"/>
+        <v>39017</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="0"/>
+        <v>39018</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="0"/>
+        <v>39019</v>
+      </c>
+      <c r="N5" s="8">
+        <f t="shared" si="0"/>
+        <v>39020</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="0"/>
+        <v>39021</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="0"/>
+        <v>39022</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="0"/>
+        <v>39023</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="0"/>
+        <v>39024</v>
+      </c>
+      <c r="S5" s="8">
+        <f t="shared" si="0"/>
+        <v>39025</v>
+      </c>
+      <c r="T5" s="8">
+        <f t="shared" si="0"/>
+        <v>39026</v>
+      </c>
+      <c r="U5" s="8">
+        <f t="shared" si="0"/>
+        <v>39027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8">
+        <f t="shared" si="2"/>
+        <v>39040</v>
+      </c>
+      <c r="C6" s="8">
+        <f t="shared" ref="C6:U6" si="3">B6+1</f>
+        <v>39041</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="3"/>
+        <v>39042</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="3"/>
+        <v>39043</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="3"/>
+        <v>39044</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="3"/>
+        <v>39045</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="3"/>
+        <v>39046</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="3"/>
+        <v>39047</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="3"/>
+        <v>39048</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="3"/>
+        <v>39049</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="3"/>
+        <v>39050</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="3"/>
+        <v>39051</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="3"/>
+        <v>39052</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="3"/>
+        <v>39053</v>
+      </c>
+      <c r="P6" s="8">
+        <f t="shared" si="3"/>
+        <v>39054</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="3"/>
+        <v>39055</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="3"/>
+        <v>39056</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="3"/>
+        <v>39057</v>
+      </c>
+      <c r="T6" s="8">
+        <f t="shared" si="3"/>
+        <v>39058</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="3"/>
+        <v>39059</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <f t="shared" si="2"/>
+        <v>39072</v>
+      </c>
+      <c r="C7" s="8">
+        <f t="shared" ref="C7:U7" si="4">B7+1</f>
+        <v>39073</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="4"/>
+        <v>39074</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="4"/>
+        <v>39075</v>
+      </c>
+      <c r="F7" s="8">
+        <f t="shared" si="4"/>
+        <v>39076</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="4"/>
+        <v>39077</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="4"/>
+        <v>39078</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="4"/>
+        <v>39079</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="4"/>
+        <v>39080</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="4"/>
+        <v>39081</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="4"/>
+        <v>39082</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="4"/>
+        <v>39083</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="4"/>
+        <v>39084</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="4"/>
+        <v>39085</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="4"/>
+        <v>39086</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="4"/>
+        <v>39087</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="4"/>
+        <v>39088</v>
+      </c>
+      <c r="S7" s="8">
+        <f t="shared" si="4"/>
+        <v>39089</v>
+      </c>
+      <c r="T7" s="8">
+        <f t="shared" si="4"/>
+        <v>39090</v>
+      </c>
+      <c r="U7" s="8">
+        <f t="shared" si="4"/>
+        <v>39091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8">
+        <f t="shared" si="2"/>
+        <v>39104</v>
+      </c>
+      <c r="C8" s="8">
+        <f t="shared" ref="C8:U8" si="5">B8+1</f>
+        <v>39105</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="5"/>
+        <v>39106</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="5"/>
+        <v>39107</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="5"/>
+        <v>39108</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="5"/>
+        <v>39109</v>
+      </c>
+      <c r="H8" s="8">
+        <f t="shared" si="5"/>
+        <v>39110</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="5"/>
+        <v>39111</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="5"/>
+        <v>39112</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="5"/>
+        <v>39113</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="5"/>
+        <v>39114</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="5"/>
+        <v>39115</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="5"/>
+        <v>39116</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="5"/>
+        <v>39117</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="5"/>
+        <v>39118</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="5"/>
+        <v>39119</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="5"/>
+        <v>39120</v>
+      </c>
+      <c r="S8" s="8">
+        <f t="shared" si="5"/>
+        <v>39121</v>
+      </c>
+      <c r="T8" s="8">
+        <f t="shared" si="5"/>
+        <v>39122</v>
+      </c>
+      <c r="U8" s="8">
+        <f t="shared" si="5"/>
+        <v>39123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
+        <f t="shared" si="2"/>
+        <v>39136</v>
+      </c>
+      <c r="C9" s="8">
+        <f t="shared" ref="C9:U9" si="6">B9+1</f>
+        <v>39137</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="6"/>
+        <v>39138</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="6"/>
+        <v>39139</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="6"/>
+        <v>39140</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="6"/>
+        <v>39141</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="6"/>
+        <v>39142</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="6"/>
+        <v>39143</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="6"/>
+        <v>39144</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="6"/>
+        <v>39145</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="6"/>
+        <v>39146</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="6"/>
+        <v>39147</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="6"/>
+        <v>39148</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="6"/>
+        <v>39149</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="6"/>
+        <v>39150</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="6"/>
+        <v>39151</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="6"/>
+        <v>39152</v>
+      </c>
+      <c r="S9" s="8">
+        <f t="shared" si="6"/>
+        <v>39153</v>
+      </c>
+      <c r="T9" s="8">
+        <f t="shared" si="6"/>
+        <v>39154</v>
+      </c>
+      <c r="U9" s="8">
+        <f t="shared" si="6"/>
+        <v>39155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8">
+        <f t="shared" si="2"/>
+        <v>39168</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:U10" si="7">B10+1</f>
+        <v>39169</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="7"/>
+        <v>39170</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="7"/>
+        <v>39171</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="7"/>
+        <v>39172</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="7"/>
+        <v>39173</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="7"/>
+        <v>39174</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="7"/>
+        <v>39175</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="7"/>
+        <v>39176</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="7"/>
+        <v>39177</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="7"/>
+        <v>39178</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="7"/>
+        <v>39179</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="7"/>
+        <v>39180</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="7"/>
+        <v>39181</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="7"/>
+        <v>39182</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="7"/>
+        <v>39183</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="7"/>
+        <v>39184</v>
+      </c>
+      <c r="S10" s="8">
+        <f t="shared" si="7"/>
+        <v>39185</v>
+      </c>
+      <c r="T10" s="8">
+        <f t="shared" si="7"/>
+        <v>39186</v>
+      </c>
+      <c r="U10" s="8">
+        <f t="shared" si="7"/>
+        <v>39187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8">
+        <f t="shared" si="2"/>
+        <v>39200</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:U11" si="8">B11+1</f>
+        <v>39201</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="8"/>
+        <v>39202</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="8"/>
+        <v>39203</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="8"/>
+        <v>39204</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="8"/>
+        <v>39205</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="8"/>
+        <v>39206</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="8"/>
+        <v>39207</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="8"/>
+        <v>39208</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="8"/>
+        <v>39209</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="8"/>
+        <v>39210</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="8"/>
+        <v>39211</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="8"/>
+        <v>39212</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="8"/>
+        <v>39213</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="8"/>
+        <v>39214</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="8"/>
+        <v>39215</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="8"/>
+        <v>39216</v>
+      </c>
+      <c r="S11" s="8">
+        <f t="shared" si="8"/>
+        <v>39217</v>
+      </c>
+      <c r="T11" s="8">
+        <f t="shared" si="8"/>
+        <v>39218</v>
+      </c>
+      <c r="U11" s="8">
+        <f t="shared" si="8"/>
+        <v>39219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8">
+        <f t="shared" si="2"/>
+        <v>39232</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" ref="C12:U12" si="9">B12+1</f>
+        <v>39233</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="9"/>
+        <v>39234</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="9"/>
+        <v>39235</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="9"/>
+        <v>39236</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="9"/>
+        <v>39237</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="9"/>
+        <v>39238</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="9"/>
+        <v>39239</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="9"/>
+        <v>39240</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="9"/>
+        <v>39241</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="9"/>
+        <v>39242</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="9"/>
+        <v>39243</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="9"/>
+        <v>39244</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="9"/>
+        <v>39245</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="9"/>
+        <v>39246</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="9"/>
+        <v>39247</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="9"/>
+        <v>39248</v>
+      </c>
+      <c r="S12" s="8">
+        <f t="shared" si="9"/>
+        <v>39249</v>
+      </c>
+      <c r="T12" s="8">
+        <f t="shared" si="9"/>
+        <v>39250</v>
+      </c>
+      <c r="U12" s="8">
+        <f t="shared" si="9"/>
+        <v>39251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8">
+        <f t="shared" si="2"/>
+        <v>39264</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" ref="C13:U13" si="10">B13+1</f>
+        <v>39265</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="10"/>
+        <v>39266</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="10"/>
+        <v>39267</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="10"/>
+        <v>39268</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="10"/>
+        <v>39269</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="10"/>
+        <v>39270</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="10"/>
+        <v>39271</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="10"/>
+        <v>39272</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="10"/>
+        <v>39273</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="10"/>
+        <v>39274</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="10"/>
+        <v>39275</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="10"/>
+        <v>39276</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="10"/>
+        <v>39277</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="10"/>
+        <v>39278</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="10"/>
+        <v>39279</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="10"/>
+        <v>39280</v>
+      </c>
+      <c r="S13" s="8">
+        <f t="shared" si="10"/>
+        <v>39281</v>
+      </c>
+      <c r="T13" s="8">
+        <f t="shared" si="10"/>
+        <v>39282</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="10"/>
+        <v>39283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8">
+        <f t="shared" si="2"/>
+        <v>39296</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" ref="C14:U14" si="11">B14+1</f>
+        <v>39297</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="11"/>
+        <v>39298</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="11"/>
+        <v>39299</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="11"/>
+        <v>39300</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="11"/>
+        <v>39301</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="11"/>
+        <v>39302</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="11"/>
+        <v>39303</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="11"/>
+        <v>39304</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="11"/>
+        <v>39305</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="11"/>
+        <v>39306</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="11"/>
+        <v>39307</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="11"/>
+        <v>39308</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="11"/>
+        <v>39309</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="11"/>
+        <v>39310</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="11"/>
+        <v>39311</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="11"/>
+        <v>39312</v>
+      </c>
+      <c r="S14" s="8">
+        <f t="shared" si="11"/>
+        <v>39313</v>
+      </c>
+      <c r="T14" s="8">
+        <f t="shared" si="11"/>
+        <v>39314</v>
+      </c>
+      <c r="U14" s="8">
+        <f t="shared" si="11"/>
+        <v>39315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8">
+        <f t="shared" si="2"/>
+        <v>39328</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" ref="C15:U15" si="12">B15+1</f>
+        <v>39329</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="12"/>
+        <v>39330</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="12"/>
+        <v>39331</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" si="12"/>
+        <v>39332</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="12"/>
+        <v>39333</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="12"/>
+        <v>39334</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="12"/>
+        <v>39335</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="12"/>
+        <v>39336</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="12"/>
+        <v>39337</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="12"/>
+        <v>39338</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="12"/>
+        <v>39339</v>
+      </c>
+      <c r="N15" s="8">
+        <f t="shared" si="12"/>
+        <v>39340</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="12"/>
+        <v>39341</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="12"/>
+        <v>39342</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="12"/>
+        <v>39343</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="12"/>
+        <v>39344</v>
+      </c>
+      <c r="S15" s="8">
+        <f t="shared" si="12"/>
+        <v>39345</v>
+      </c>
+      <c r="T15" s="8">
+        <f t="shared" si="12"/>
+        <v>39346</v>
+      </c>
+      <c r="U15" s="8">
+        <f t="shared" si="12"/>
+        <v>39347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8">
+        <f t="shared" si="2"/>
+        <v>39360</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" ref="C16:U16" si="13">B16+1</f>
+        <v>39361</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="13"/>
+        <v>39362</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="13"/>
+        <v>39363</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="13"/>
+        <v>39364</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="13"/>
+        <v>39365</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="13"/>
+        <v>39366</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="13"/>
+        <v>39367</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="13"/>
+        <v>39368</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="13"/>
+        <v>39369</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="13"/>
+        <v>39370</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="13"/>
+        <v>39371</v>
+      </c>
+      <c r="N16" s="8">
+        <f t="shared" si="13"/>
+        <v>39372</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="13"/>
+        <v>39373</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="13"/>
+        <v>39374</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="13"/>
+        <v>39375</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="13"/>
+        <v>39376</v>
+      </c>
+      <c r="S16" s="8">
+        <f t="shared" si="13"/>
+        <v>39377</v>
+      </c>
+      <c r="T16" s="8">
+        <f t="shared" si="13"/>
+        <v>39378</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" si="13"/>
+        <v>39379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8">
+        <f t="shared" si="2"/>
+        <v>39392</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" ref="C17:U17" si="14">B17+1</f>
+        <v>39393</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="14"/>
+        <v>39394</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="14"/>
+        <v>39395</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="14"/>
+        <v>39396</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="14"/>
+        <v>39397</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="14"/>
+        <v>39398</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="14"/>
+        <v>39399</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="14"/>
+        <v>39400</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="14"/>
+        <v>39401</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="14"/>
+        <v>39402</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="14"/>
+        <v>39403</v>
+      </c>
+      <c r="N17" s="8">
+        <f t="shared" si="14"/>
+        <v>39404</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="14"/>
+        <v>39405</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="14"/>
+        <v>39406</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="14"/>
+        <v>39407</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="14"/>
+        <v>39408</v>
+      </c>
+      <c r="S17" s="8">
+        <f t="shared" si="14"/>
+        <v>39409</v>
+      </c>
+      <c r="T17" s="8">
+        <f t="shared" si="14"/>
+        <v>39410</v>
+      </c>
+      <c r="U17" s="8">
+        <f t="shared" si="14"/>
+        <v>39411</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8">
+        <f t="shared" si="2"/>
+        <v>39424</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" ref="C18:U18" si="15">B18+1</f>
+        <v>39425</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="15"/>
+        <v>39426</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="15"/>
+        <v>39427</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="15"/>
+        <v>39428</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" si="15"/>
+        <v>39429</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="15"/>
+        <v>39430</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="15"/>
+        <v>39431</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="15"/>
+        <v>39432</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="15"/>
+        <v>39433</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="15"/>
+        <v>39434</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="15"/>
+        <v>39435</v>
+      </c>
+      <c r="N18" s="8">
+        <f t="shared" si="15"/>
+        <v>39436</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="15"/>
+        <v>39437</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="15"/>
+        <v>39438</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="15"/>
+        <v>39439</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="15"/>
+        <v>39440</v>
+      </c>
+      <c r="S18" s="8">
+        <f t="shared" si="15"/>
+        <v>39441</v>
+      </c>
+      <c r="T18" s="8">
+        <f t="shared" si="15"/>
+        <v>39442</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" si="15"/>
+        <v>39443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8">
+        <f t="shared" si="2"/>
+        <v>39456</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" ref="C19:U19" si="16">B19+1</f>
+        <v>39457</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="16"/>
+        <v>39458</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="16"/>
+        <v>39459</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" si="16"/>
+        <v>39460</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="16"/>
+        <v>39461</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="16"/>
+        <v>39462</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="16"/>
+        <v>39463</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="16"/>
+        <v>39464</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="16"/>
+        <v>39465</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="16"/>
+        <v>39466</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="16"/>
+        <v>39467</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="16"/>
+        <v>39468</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="16"/>
+        <v>39469</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="16"/>
+        <v>39470</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="16"/>
+        <v>39471</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="16"/>
+        <v>39472</v>
+      </c>
+      <c r="S19" s="8">
+        <f t="shared" si="16"/>
+        <v>39473</v>
+      </c>
+      <c r="T19" s="8">
+        <f t="shared" si="16"/>
+        <v>39474</v>
+      </c>
+      <c r="U19" s="8">
+        <f t="shared" si="16"/>
+        <v>39475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8">
+        <f t="shared" si="2"/>
+        <v>39488</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" ref="C20:U20" si="17">B20+1</f>
+        <v>39489</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="17"/>
+        <v>39490</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="17"/>
+        <v>39491</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="17"/>
+        <v>39492</v>
+      </c>
+      <c r="G20" s="8">
+        <f t="shared" si="17"/>
+        <v>39493</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="17"/>
+        <v>39494</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="17"/>
+        <v>39495</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="17"/>
+        <v>39496</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="17"/>
+        <v>39497</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="17"/>
+        <v>39498</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="17"/>
+        <v>39499</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="17"/>
+        <v>39500</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="17"/>
+        <v>39501</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="17"/>
+        <v>39502</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="17"/>
+        <v>39503</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="17"/>
+        <v>39504</v>
+      </c>
+      <c r="S20" s="8">
+        <f t="shared" si="17"/>
+        <v>39505</v>
+      </c>
+      <c r="T20" s="8">
+        <f t="shared" si="17"/>
+        <v>39506</v>
+      </c>
+      <c r="U20" s="8">
+        <f t="shared" si="17"/>
+        <v>39507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8">
+        <f t="shared" si="2"/>
+        <v>39520</v>
+      </c>
+      <c r="C21" s="8">
+        <f t="shared" ref="C21:U21" si="18">B21+1</f>
+        <v>39521</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="18"/>
+        <v>39522</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="18"/>
+        <v>39523</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="18"/>
+        <v>39524</v>
+      </c>
+      <c r="G21" s="8">
+        <f t="shared" si="18"/>
+        <v>39525</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="18"/>
+        <v>39526</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="18"/>
+        <v>39527</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="18"/>
+        <v>39528</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="18"/>
+        <v>39529</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="18"/>
+        <v>39530</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="18"/>
+        <v>39531</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="18"/>
+        <v>39532</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="18"/>
+        <v>39533</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="18"/>
+        <v>39534</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="18"/>
+        <v>39535</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="18"/>
+        <v>39536</v>
+      </c>
+      <c r="S21" s="8">
+        <f t="shared" si="18"/>
+        <v>39537</v>
+      </c>
+      <c r="T21" s="8">
+        <f t="shared" si="18"/>
+        <v>39538</v>
+      </c>
+      <c r="U21" s="8">
+        <f t="shared" si="18"/>
+        <v>39539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
@@ -2917,10 +4718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E2:E24"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2945,7 +4746,7 @@
         <v>156</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
@@ -2953,18 +4754,18 @@
         <v>171</v>
       </c>
       <c r="B2" s="8">
-        <f>LEN(A2)</f>
+        <f t="shared" ref="B2:B24" si="0">LEN(A2)</f>
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D2" s="13" t="str">
-        <f>"["&amp;IF(LEN(A2)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A2,1,1))),"")&amp;IF(LEN(A2)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A2,2,1))),"")&amp;IF(LEN(A2)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A2,3,1))),"")&amp;IF(LEN(A2)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A2,4,1))),"")&amp;IF(LEN(A2)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A2,5,1))),"")&amp;IF(LEN(A2)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A2,6,1))),"")&amp;IF(LEN(A2)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A2,7,1))),"")&amp;IF(LEN(A2)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A2,8,1))),"")&amp;IF(LEN(A2)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A2,9,1))),"")&amp;IF(LEN(A2)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A2,10,1))),"")&amp;IF(LEN(A2)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A2,11,1))),"")&amp;IF(LEN(A2)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A2,12,1))),"")&amp;IF(LEN(A2)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A2,13,1))),"")&amp;IF(LEN(A2)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A2,14,1))),"")&amp;IF(LEN(A2)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A2,15,1))),"")&amp;IF(LEN(A2)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A2,16,1))),"")&amp;IF(LEN(A2)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A2,17,1))),"")&amp;IF(LEN(A2)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A2,18,1))),"")&amp;IF(LEN(A2)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A2,19,1))),"")&amp;IF(LEN(A2)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A2,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" ref="D2:D24" si="1">"["&amp;IF(LEN(A2)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A2,1,1))),"")&amp;IF(LEN(A2)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A2,2,1))),"")&amp;IF(LEN(A2)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A2,3,1))),"")&amp;IF(LEN(A2)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A2,4,1))),"")&amp;IF(LEN(A2)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A2,5,1))),"")&amp;IF(LEN(A2)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A2,6,1))),"")&amp;IF(LEN(A2)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A2,7,1))),"")&amp;IF(LEN(A2)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A2,8,1))),"")&amp;IF(LEN(A2)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A2,9,1))),"")&amp;IF(LEN(A2)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A2,10,1))),"")&amp;IF(LEN(A2)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A2,11,1))),"")&amp;IF(LEN(A2)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A2,12,1))),"")&amp;IF(LEN(A2)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A2,13,1))),"")&amp;IF(LEN(A2)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A2,14,1))),"")&amp;IF(LEN(A2)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A2,15,1))),"")&amp;IF(LEN(A2)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A2,16,1))),"")&amp;IF(LEN(A2)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A2,17,1))),"")&amp;IF(LEN(A2)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A2,18,1))),"")&amp;IF(LEN(A2)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A2,19,1))),"")&amp;IF(LEN(A2)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A2,20,1))),"")&amp;",0x0]"</f>
         <v>[0x61,0x72,0x65,0x61,0x63,0x68,0x6F,0x2E,0x62,0x69,0x6E,0x0]</v>
       </c>
       <c r="E2" s="8" t="str">
-        <f>CHAR(34)&amp;A2&amp;CHAR(34)&amp;" = "&amp;C2</f>
+        <f t="shared" ref="E2:E24" si="2">CHAR(34)&amp;A2&amp;CHAR(34)&amp;" = "&amp;C2</f>
         <v>"areacho.bin" = Play area menu</v>
       </c>
     </row>
@@ -2973,18 +4774,18 @@
         <v>172</v>
       </c>
       <c r="B3" s="8">
-        <f>LEN(A3)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D3" s="13" t="str">
-        <f>"["&amp;IF(LEN(A3)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A3,1,1))),"")&amp;IF(LEN(A3)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A3,2,1))),"")&amp;IF(LEN(A3)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A3,3,1))),"")&amp;IF(LEN(A3)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A3,4,1))),"")&amp;IF(LEN(A3)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A3,5,1))),"")&amp;IF(LEN(A3)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A3,6,1))),"")&amp;IF(LEN(A3)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A3,7,1))),"")&amp;IF(LEN(A3)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A3,8,1))),"")&amp;IF(LEN(A3)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A3,9,1))),"")&amp;IF(LEN(A3)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A3,10,1))),"")&amp;IF(LEN(A3)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A3,11,1))),"")&amp;IF(LEN(A3)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A3,12,1))),"")&amp;IF(LEN(A3)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A3,13,1))),"")&amp;IF(LEN(A3)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A3,14,1))),"")&amp;IF(LEN(A3)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A3,15,1))),"")&amp;IF(LEN(A3)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A3,16,1))),"")&amp;IF(LEN(A3)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A3,17,1))),"")&amp;IF(LEN(A3)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A3,18,1))),"")&amp;IF(LEN(A3)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A3,19,1))),"")&amp;IF(LEN(A3)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A3,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x61,0x72,0x65,0x61,0x73,0x65,0x6C,0x2E,0x62,0x69,0x6E,0x0]</v>
       </c>
       <c r="E3" s="8" t="str">
-        <f>CHAR(34)&amp;A3&amp;CHAR(34)&amp;" = "&amp;C3</f>
+        <f t="shared" si="2"/>
         <v>"areasel.bin" = Score attack menu</v>
       </c>
     </row>
@@ -2993,38 +4794,38 @@
         <v>132</v>
       </c>
       <c r="B4" s="8">
-        <f>LEN(A4)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D4" s="13" t="str">
-        <f>"["&amp;IF(LEN(A4)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A4,1,1))),"")&amp;IF(LEN(A4)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A4,2,1))),"")&amp;IF(LEN(A4)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A4,3,1))),"")&amp;IF(LEN(A4)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A4,4,1))),"")&amp;IF(LEN(A4)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A4,5,1))),"")&amp;IF(LEN(A4)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A4,6,1))),"")&amp;IF(LEN(A4)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A4,7,1))),"")&amp;IF(LEN(A4)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A4,8,1))),"")&amp;IF(LEN(A4)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A4,9,1))),"")&amp;IF(LEN(A4)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A4,10,1))),"")&amp;IF(LEN(A4)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A4,11,1))),"")&amp;IF(LEN(A4)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A4,12,1))),"")&amp;IF(LEN(A4)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A4,13,1))),"")&amp;IF(LEN(A4)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A4,14,1))),"")&amp;IF(LEN(A4)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A4,15,1))),"")&amp;IF(LEN(A4)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A4,16,1))),"")&amp;IF(LEN(A4)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A4,17,1))),"")&amp;IF(LEN(A4)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A4,18,1))),"")&amp;IF(LEN(A4)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A4,19,1))),"")&amp;IF(LEN(A4)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A4,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x65,0x61,0x72,0x5F,0x63,0x68,0x2E,0x6D,0x64,0x70,0x0]</v>
       </c>
       <c r="E4" s="8" t="str">
-        <f>CHAR(34)&amp;A4&amp;CHAR(34)&amp;" = "&amp;C4</f>
+        <f t="shared" si="2"/>
         <v>"ear_ch.mdp" = Earth boss (start)</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B5" s="8">
-        <f>LEN(A5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D5" s="13" t="str">
-        <f>"["&amp;IF(LEN(A5)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A5,1,1))),"")&amp;IF(LEN(A5)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A5,2,1))),"")&amp;IF(LEN(A5)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A5,3,1))),"")&amp;IF(LEN(A5)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A5,4,1))),"")&amp;IF(LEN(A5)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A5,5,1))),"")&amp;IF(LEN(A5)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A5,6,1))),"")&amp;IF(LEN(A5)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A5,7,1))),"")&amp;IF(LEN(A5)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A5,8,1))),"")&amp;IF(LEN(A5)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A5,9,1))),"")&amp;IF(LEN(A5)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A5,10,1))),"")&amp;IF(LEN(A5)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A5,11,1))),"")&amp;IF(LEN(A5)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A5,12,1))),"")&amp;IF(LEN(A5)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A5,13,1))),"")&amp;IF(LEN(A5)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A5,14,1))),"")&amp;IF(LEN(A5)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A5,15,1))),"")&amp;IF(LEN(A5)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A5,16,1))),"")&amp;IF(LEN(A5)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A5,17,1))),"")&amp;IF(LEN(A5)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A5,18,1))),"")&amp;IF(LEN(A5)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A5,19,1))),"")&amp;IF(LEN(A5)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A5,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x65,0x64,0x65,0x6E,0x5F,0x64,0x35,0x2E,0x70,0x6D,0x6D,0x0]</v>
       </c>
       <c r="E5" s="8" t="str">
-        <f>CHAR(34)&amp;A5&amp;CHAR(34)&amp;" = "&amp;C5</f>
+        <f t="shared" si="2"/>
         <v>"eden_d5.pmm" = Form 5 of the final boss end movie</v>
       </c>
     </row>
@@ -3033,18 +4834,18 @@
         <v>139</v>
       </c>
       <c r="B6" s="8">
-        <f>LEN(A6)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f>"["&amp;IF(LEN(A6)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A6,1,1))),"")&amp;IF(LEN(A6)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A6,2,1))),"")&amp;IF(LEN(A6)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A6,3,1))),"")&amp;IF(LEN(A6)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A6,4,1))),"")&amp;IF(LEN(A6)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A6,5,1))),"")&amp;IF(LEN(A6)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A6,6,1))),"")&amp;IF(LEN(A6)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A6,7,1))),"")&amp;IF(LEN(A6)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A6,8,1))),"")&amp;IF(LEN(A6)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A6,9,1))),"")&amp;IF(LEN(A6)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A6,10,1))),"")&amp;IF(LEN(A6)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A6,11,1))),"")&amp;IF(LEN(A6)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A6,12,1))),"")&amp;IF(LEN(A6)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A6,13,1))),"")&amp;IF(LEN(A6)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A6,14,1))),"")&amp;IF(LEN(A6)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A6,15,1))),"")&amp;IF(LEN(A6)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A6,16,1))),"")&amp;IF(LEN(A6)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A6,17,1))),"")&amp;IF(LEN(A6)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A6,18,1))),"")&amp;IF(LEN(A6)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A6,19,1))),"")&amp;IF(LEN(A6)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A6,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x65,0x64,0x65,0x6E,0x5F,0x73,0x31,0x2E,0x70,0x6D,0x6D,0x0]</v>
       </c>
       <c r="E6" s="8" t="str">
-        <f>CHAR(34)&amp;A6&amp;CHAR(34)&amp;" = "&amp;C6</f>
+        <f t="shared" si="2"/>
         <v>"eden_s1.pmm" = Form 1 of the final boss (start &amp; end)</v>
       </c>
     </row>
@@ -3053,18 +4854,18 @@
         <v>140</v>
       </c>
       <c r="B7" s="8">
-        <f>LEN(A7)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D7" s="13" t="str">
-        <f>"["&amp;IF(LEN(A7)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A7,1,1))),"")&amp;IF(LEN(A7)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A7,2,1))),"")&amp;IF(LEN(A7)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A7,3,1))),"")&amp;IF(LEN(A7)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A7,4,1))),"")&amp;IF(LEN(A7)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A7,5,1))),"")&amp;IF(LEN(A7)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A7,6,1))),"")&amp;IF(LEN(A7)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A7,7,1))),"")&amp;IF(LEN(A7)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A7,8,1))),"")&amp;IF(LEN(A7)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A7,9,1))),"")&amp;IF(LEN(A7)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A7,10,1))),"")&amp;IF(LEN(A7)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A7,11,1))),"")&amp;IF(LEN(A7)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A7,12,1))),"")&amp;IF(LEN(A7)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A7,13,1))),"")&amp;IF(LEN(A7)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A7,14,1))),"")&amp;IF(LEN(A7)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A7,15,1))),"")&amp;IF(LEN(A7)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A7,16,1))),"")&amp;IF(LEN(A7)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A7,17,1))),"")&amp;IF(LEN(A7)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A7,18,1))),"")&amp;IF(LEN(A7)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A7,19,1))),"")&amp;IF(LEN(A7)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A7,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x65,0x64,0x65,0x6E,0x5F,0x73,0x32,0x2E,0x70,0x6D,0x6D,0x0]</v>
       </c>
       <c r="E7" s="8" t="str">
-        <f>CHAR(34)&amp;A7&amp;CHAR(34)&amp;" = "&amp;C7</f>
+        <f t="shared" si="2"/>
         <v>"eden_s2.pmm" = Form 2 of the final boss (start &amp; end)</v>
       </c>
     </row>
@@ -3073,18 +4874,18 @@
         <v>141</v>
       </c>
       <c r="B8" s="8">
-        <f>LEN(A8)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D8" s="13" t="str">
-        <f>"["&amp;IF(LEN(A8)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A8,1,1))),"")&amp;IF(LEN(A8)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A8,2,1))),"")&amp;IF(LEN(A8)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A8,3,1))),"")&amp;IF(LEN(A8)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A8,4,1))),"")&amp;IF(LEN(A8)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A8,5,1))),"")&amp;IF(LEN(A8)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A8,6,1))),"")&amp;IF(LEN(A8)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A8,7,1))),"")&amp;IF(LEN(A8)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A8,8,1))),"")&amp;IF(LEN(A8)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A8,9,1))),"")&amp;IF(LEN(A8)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A8,10,1))),"")&amp;IF(LEN(A8)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A8,11,1))),"")&amp;IF(LEN(A8)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A8,12,1))),"")&amp;IF(LEN(A8)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A8,13,1))),"")&amp;IF(LEN(A8)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A8,14,1))),"")&amp;IF(LEN(A8)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A8,15,1))),"")&amp;IF(LEN(A8)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A8,16,1))),"")&amp;IF(LEN(A8)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A8,17,1))),"")&amp;IF(LEN(A8)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A8,18,1))),"")&amp;IF(LEN(A8)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A8,19,1))),"")&amp;IF(LEN(A8)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A8,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x65,0x64,0x65,0x6E,0x5F,0x73,0x33,0x2E,0x70,0x6D,0x6D,0x0]</v>
       </c>
       <c r="E8" s="8" t="str">
-        <f>CHAR(34)&amp;A8&amp;CHAR(34)&amp;" = "&amp;C8</f>
+        <f t="shared" si="2"/>
         <v>"eden_s3.pmm" = Form 3 of the final boss (start &amp; end)</v>
       </c>
     </row>
@@ -3093,38 +4894,38 @@
         <v>142</v>
       </c>
       <c r="B9" s="8">
-        <f>LEN(A9)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D9" s="13" t="str">
-        <f>"["&amp;IF(LEN(A9)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A9,1,1))),"")&amp;IF(LEN(A9)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A9,2,1))),"")&amp;IF(LEN(A9)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A9,3,1))),"")&amp;IF(LEN(A9)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A9,4,1))),"")&amp;IF(LEN(A9)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A9,5,1))),"")&amp;IF(LEN(A9)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A9,6,1))),"")&amp;IF(LEN(A9)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A9,7,1))),"")&amp;IF(LEN(A9)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A9,8,1))),"")&amp;IF(LEN(A9)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A9,9,1))),"")&amp;IF(LEN(A9)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A9,10,1))),"")&amp;IF(LEN(A9)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A9,11,1))),"")&amp;IF(LEN(A9)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A9,12,1))),"")&amp;IF(LEN(A9)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A9,13,1))),"")&amp;IF(LEN(A9)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A9,14,1))),"")&amp;IF(LEN(A9)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A9,15,1))),"")&amp;IF(LEN(A9)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A9,16,1))),"")&amp;IF(LEN(A9)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A9,17,1))),"")&amp;IF(LEN(A9)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A9,18,1))),"")&amp;IF(LEN(A9)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A9,19,1))),"")&amp;IF(LEN(A9)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A9,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x65,0x64,0x65,0x6E,0x5F,0x73,0x34,0x2E,0x70,0x6D,0x6D,0x0]</v>
       </c>
       <c r="E9" s="8" t="str">
-        <f>CHAR(34)&amp;A9&amp;CHAR(34)&amp;" = "&amp;C9</f>
+        <f t="shared" si="2"/>
         <v>"eden_s4.pmm" = Form 4 of the final boss (start &amp; end)</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B10" s="8">
-        <f>LEN(A10)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D10" s="13" t="str">
-        <f>"["&amp;IF(LEN(A10)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A10,1,1))),"")&amp;IF(LEN(A10)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A10,2,1))),"")&amp;IF(LEN(A10)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A10,3,1))),"")&amp;IF(LEN(A10)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A10,4,1))),"")&amp;IF(LEN(A10)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A10,5,1))),"")&amp;IF(LEN(A10)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A10,6,1))),"")&amp;IF(LEN(A10)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A10,7,1))),"")&amp;IF(LEN(A10)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A10,8,1))),"")&amp;IF(LEN(A10)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A10,9,1))),"")&amp;IF(LEN(A10)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A10,10,1))),"")&amp;IF(LEN(A10)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A10,11,1))),"")&amp;IF(LEN(A10)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A10,12,1))),"")&amp;IF(LEN(A10)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A10,13,1))),"")&amp;IF(LEN(A10)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A10,14,1))),"")&amp;IF(LEN(A10)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A10,15,1))),"")&amp;IF(LEN(A10)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A10,16,1))),"")&amp;IF(LEN(A10)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A10,17,1))),"")&amp;IF(LEN(A10)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A10,18,1))),"")&amp;IF(LEN(A10)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A10,19,1))),"")&amp;IF(LEN(A10)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A10,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x65,0x64,0x65,0x6E,0x5F,0x73,0x35,0x2E,0x70,0x6D,0x6D,0x0]</v>
       </c>
       <c r="E10" s="8" t="str">
-        <f>CHAR(34)&amp;A10&amp;CHAR(34)&amp;" = "&amp;C10</f>
+        <f t="shared" si="2"/>
         <v>"eden_s5.pmm" = Form 5 of the final boss (pre battle)</v>
       </c>
     </row>
@@ -3133,38 +4934,38 @@
         <v>173</v>
       </c>
       <c r="B11" s="8">
-        <f>LEN(A11)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D11" s="13" t="str">
-        <f>"["&amp;IF(LEN(A11)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A11,1,1))),"")&amp;IF(LEN(A11)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A11,2,1))),"")&amp;IF(LEN(A11)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A11,3,1))),"")&amp;IF(LEN(A11)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A11,4,1))),"")&amp;IF(LEN(A11)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A11,5,1))),"")&amp;IF(LEN(A11)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A11,6,1))),"")&amp;IF(LEN(A11)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A11,7,1))),"")&amp;IF(LEN(A11)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A11,8,1))),"")&amp;IF(LEN(A11)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A11,9,1))),"")&amp;IF(LEN(A11)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A11,10,1))),"")&amp;IF(LEN(A11)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A11,11,1))),"")&amp;IF(LEN(A11)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A11,12,1))),"")&amp;IF(LEN(A11)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A11,13,1))),"")&amp;IF(LEN(A11)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A11,14,1))),"")&amp;IF(LEN(A11)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A11,15,1))),"")&amp;IF(LEN(A11)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A11,16,1))),"")&amp;IF(LEN(A11)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A11,17,1))),"")&amp;IF(LEN(A11)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A11,18,1))),"")&amp;IF(LEN(A11)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A11,19,1))),"")&amp;IF(LEN(A11)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A11,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x65,0x78,0x74,0x72,0x61,0x2E,0x62,0x69,0x6E,0x0]</v>
       </c>
       <c r="E11" s="8" t="str">
-        <f>CHAR(34)&amp;A11&amp;CHAR(34)&amp;" = "&amp;C11</f>
+        <f t="shared" si="2"/>
         <v>"extra.bin" = The beyond extra menu</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B12" s="8">
-        <f>LEN(A12)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D12" s="13" t="str">
-        <f>"["&amp;IF(LEN(A12)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A12,1,1))),"")&amp;IF(LEN(A12)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A12,2,1))),"")&amp;IF(LEN(A12)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A12,3,1))),"")&amp;IF(LEN(A12)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A12,4,1))),"")&amp;IF(LEN(A12)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A12,5,1))),"")&amp;IF(LEN(A12)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A12,6,1))),"")&amp;IF(LEN(A12)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A12,7,1))),"")&amp;IF(LEN(A12)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A12,8,1))),"")&amp;IF(LEN(A12)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A12,9,1))),"")&amp;IF(LEN(A12)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A12,10,1))),"")&amp;IF(LEN(A12)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A12,11,1))),"")&amp;IF(LEN(A12)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A12,12,1))),"")&amp;IF(LEN(A12)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A12,13,1))),"")&amp;IF(LEN(A12)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A12,14,1))),"")&amp;IF(LEN(A12)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A12,15,1))),"")&amp;IF(LEN(A12)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A12,16,1))),"")&amp;IF(LEN(A12)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A12,17,1))),"")&amp;IF(LEN(A12)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A12,18,1))),"")&amp;IF(LEN(A12)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A12,19,1))),"")&amp;IF(LEN(A12)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A12,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x67,0x61,0x6D,0x65,0x6F,0x76,0x65,0x72,0x2E,0x62,0x69,0x6E,0x0]</v>
       </c>
       <c r="E12" s="8" t="str">
-        <f>CHAR(34)&amp;A12&amp;CHAR(34)&amp;" = "&amp;C12</f>
+        <f t="shared" si="2"/>
         <v>"gameover.bin" = Game over screen</v>
       </c>
     </row>
@@ -3173,18 +4974,18 @@
         <v>134</v>
       </c>
       <c r="B13" s="8">
-        <f>LEN(A13)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D13" s="13" t="str">
-        <f>"["&amp;IF(LEN(A13)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A13,1,1))),"")&amp;IF(LEN(A13)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A13,2,1))),"")&amp;IF(LEN(A13)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A13,3,1))),"")&amp;IF(LEN(A13)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A13,4,1))),"")&amp;IF(LEN(A13)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A13,5,1))),"")&amp;IF(LEN(A13)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A13,6,1))),"")&amp;IF(LEN(A13)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A13,7,1))),"")&amp;IF(LEN(A13)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A13,8,1))),"")&amp;IF(LEN(A13)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A13,9,1))),"")&amp;IF(LEN(A13)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A13,10,1))),"")&amp;IF(LEN(A13)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A13,11,1))),"")&amp;IF(LEN(A13)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A13,12,1))),"")&amp;IF(LEN(A13)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A13,13,1))),"")&amp;IF(LEN(A13)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A13,14,1))),"")&amp;IF(LEN(A13)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A13,15,1))),"")&amp;IF(LEN(A13)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A13,16,1))),"")&amp;IF(LEN(A13)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A13,17,1))),"")&amp;IF(LEN(A13)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A13,18,1))),"")&amp;IF(LEN(A13)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A13,19,1))),"")&amp;IF(LEN(A13)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A13,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x6D,0x61,0x72,0x5F,0x63,0x68,0x2E,0x6D,0x64,0x70,0x0]</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f>CHAR(34)&amp;A13&amp;CHAR(34)&amp;" = "&amp;C13</f>
+        <f t="shared" si="2"/>
         <v>"mar_ch.mdp" = Mars boss (start)</v>
       </c>
     </row>
@@ -3193,18 +4994,18 @@
         <v>179</v>
       </c>
       <c r="B14" s="8">
-        <f>LEN(A14)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D14" s="13" t="str">
-        <f>"["&amp;IF(LEN(A14)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A14,1,1))),"")&amp;IF(LEN(A14)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A14,2,1))),"")&amp;IF(LEN(A14)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A14,3,1))),"")&amp;IF(LEN(A14)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A14,4,1))),"")&amp;IF(LEN(A14)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A14,5,1))),"")&amp;IF(LEN(A14)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A14,6,1))),"")&amp;IF(LEN(A14)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A14,7,1))),"")&amp;IF(LEN(A14)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A14,8,1))),"")&amp;IF(LEN(A14)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A14,9,1))),"")&amp;IF(LEN(A14)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A14,10,1))),"")&amp;IF(LEN(A14)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A14,11,1))),"")&amp;IF(LEN(A14)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A14,12,1))),"")&amp;IF(LEN(A14)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A14,13,1))),"")&amp;IF(LEN(A14)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A14,14,1))),"")&amp;IF(LEN(A14)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A14,15,1))),"")&amp;IF(LEN(A14)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A14,16,1))),"")&amp;IF(LEN(A14)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A14,17,1))),"")&amp;IF(LEN(A14)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A14,18,1))),"")&amp;IF(LEN(A14)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A14,19,1))),"")&amp;IF(LEN(A14)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A14,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x72,0x65,0x73,0x75,0x6C,0x74,0x2E,0x6E,0x62,0x70,0x0]</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f>CHAR(34)&amp;A14&amp;CHAR(34)&amp;" = "&amp;C14</f>
+        <f t="shared" si="2"/>
         <v>"result.nbp" = The results screen</v>
       </c>
     </row>
@@ -3213,18 +5014,18 @@
         <v>133</v>
       </c>
       <c r="B15" s="8">
-        <f>LEN(A15)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D15" s="13" t="str">
-        <f>"["&amp;IF(LEN(A15)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A15,1,1))),"")&amp;IF(LEN(A15)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A15,2,1))),"")&amp;IF(LEN(A15)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A15,3,1))),"")&amp;IF(LEN(A15)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A15,4,1))),"")&amp;IF(LEN(A15)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A15,5,1))),"")&amp;IF(LEN(A15)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A15,6,1))),"")&amp;IF(LEN(A15)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A15,7,1))),"")&amp;IF(LEN(A15)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A15,8,1))),"")&amp;IF(LEN(A15)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A15,9,1))),"")&amp;IF(LEN(A15)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A15,10,1))),"")&amp;IF(LEN(A15)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A15,11,1))),"")&amp;IF(LEN(A15)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A15,12,1))),"")&amp;IF(LEN(A15)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A15,13,1))),"")&amp;IF(LEN(A15)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A15,14,1))),"")&amp;IF(LEN(A15)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A15,15,1))),"")&amp;IF(LEN(A15)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A15,16,1))),"")&amp;IF(LEN(A15)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A15,17,1))),"")&amp;IF(LEN(A15)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A15,18,1))),"")&amp;IF(LEN(A15)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A15,19,1))),"")&amp;IF(LEN(A15)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A15,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x73,0x5F,0x65,0x61,0x72,0x5F,0x63,0x2E,0x73,0x74,0x70,0x0]</v>
       </c>
       <c r="E15" s="8" t="str">
-        <f>CHAR(34)&amp;A15&amp;CHAR(34)&amp;" = "&amp;C15</f>
+        <f t="shared" si="2"/>
         <v>"s_ear_c.stp" = Earth boss (end)</v>
       </c>
     </row>
@@ -3233,18 +5034,18 @@
         <v>143</v>
       </c>
       <c r="B16" s="8">
-        <f>LEN(A16)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D16" s="13" t="str">
-        <f>"["&amp;IF(LEN(A16)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A16,1,1))),"")&amp;IF(LEN(A16)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A16,2,1))),"")&amp;IF(LEN(A16)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A16,3,1))),"")&amp;IF(LEN(A16)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A16,4,1))),"")&amp;IF(LEN(A16)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A16,5,1))),"")&amp;IF(LEN(A16)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A16,6,1))),"")&amp;IF(LEN(A16)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A16,7,1))),"")&amp;IF(LEN(A16)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A16,8,1))),"")&amp;IF(LEN(A16)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A16,9,1))),"")&amp;IF(LEN(A16)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A16,10,1))),"")&amp;IF(LEN(A16)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A16,11,1))),"")&amp;IF(LEN(A16)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A16,12,1))),"")&amp;IF(LEN(A16)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A16,13,1))),"")&amp;IF(LEN(A16)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A16,14,1))),"")&amp;IF(LEN(A16)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A16,15,1))),"")&amp;IF(LEN(A16)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A16,16,1))),"")&amp;IF(LEN(A16)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A16,17,1))),"")&amp;IF(LEN(A16)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A16,18,1))),"")&amp;IF(LEN(A16)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A16,19,1))),"")&amp;IF(LEN(A16)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A16,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x73,0x5F,0x65,0x64,0x65,0x5F,0x63,0x2E,0x73,0x74,0x70,0x0]</v>
       </c>
       <c r="E16" s="8" t="str">
-        <f>CHAR(34)&amp;A16&amp;CHAR(34)&amp;" = "&amp;C16</f>
+        <f t="shared" si="2"/>
         <v>"s_ede_c.stp" = Form 5 of the final boss (start &amp; end)</v>
       </c>
     </row>
@@ -3253,58 +5054,58 @@
         <v>135</v>
       </c>
       <c r="B17" s="8">
-        <f>LEN(A17)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D17" s="13" t="str">
-        <f>"["&amp;IF(LEN(A17)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A17,1,1))),"")&amp;IF(LEN(A17)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A17,2,1))),"")&amp;IF(LEN(A17)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A17,3,1))),"")&amp;IF(LEN(A17)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A17,4,1))),"")&amp;IF(LEN(A17)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A17,5,1))),"")&amp;IF(LEN(A17)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A17,6,1))),"")&amp;IF(LEN(A17)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A17,7,1))),"")&amp;IF(LEN(A17)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A17,8,1))),"")&amp;IF(LEN(A17)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A17,9,1))),"")&amp;IF(LEN(A17)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A17,10,1))),"")&amp;IF(LEN(A17)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A17,11,1))),"")&amp;IF(LEN(A17)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A17,12,1))),"")&amp;IF(LEN(A17)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A17,13,1))),"")&amp;IF(LEN(A17)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A17,14,1))),"")&amp;IF(LEN(A17)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A17,15,1))),"")&amp;IF(LEN(A17)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A17,16,1))),"")&amp;IF(LEN(A17)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A17,17,1))),"")&amp;IF(LEN(A17)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A17,18,1))),"")&amp;IF(LEN(A17)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A17,19,1))),"")&amp;IF(LEN(A17)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A17,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x73,0x5F,0x6D,0x61,0x72,0x5F,0x63,0x2E,0x73,0x74,0x70,0x0]</v>
       </c>
       <c r="E17" s="8" t="str">
-        <f>CHAR(34)&amp;A17&amp;CHAR(34)&amp;" = "&amp;C17</f>
+        <f t="shared" si="2"/>
         <v>"s_mar_c.stp" = Mars boss (end)</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B18" s="8">
-        <f>LEN(A18)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D18" s="13" t="str">
-        <f>"["&amp;IF(LEN(A18)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A18,1,1))),"")&amp;IF(LEN(A18)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A18,2,1))),"")&amp;IF(LEN(A18)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A18,3,1))),"")&amp;IF(LEN(A18)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A18,4,1))),"")&amp;IF(LEN(A18)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A18,5,1))),"")&amp;IF(LEN(A18)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A18,6,1))),"")&amp;IF(LEN(A18)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A18,7,1))),"")&amp;IF(LEN(A18)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A18,8,1))),"")&amp;IF(LEN(A18)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A18,9,1))),"")&amp;IF(LEN(A18)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A18,10,1))),"")&amp;IF(LEN(A18)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A18,11,1))),"")&amp;IF(LEN(A18)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A18,12,1))),"")&amp;IF(LEN(A18)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A18,13,1))),"")&amp;IF(LEN(A18)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A18,14,1))),"")&amp;IF(LEN(A18)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A18,15,1))),"")&amp;IF(LEN(A18)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A18,16,1))),"")&amp;IF(LEN(A18)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A18,17,1))),"")&amp;IF(LEN(A18)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A18,18,1))),"")&amp;IF(LEN(A18)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A18,19,1))),"")&amp;IF(LEN(A18)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A18,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x73,0x5F,0x6E,0x75,0x6C,0x6C,0x5F,0x63,0x2E,0x6D,0x70,0x62,0x0]</v>
       </c>
       <c r="E18" s="8" t="str">
-        <f>CHAR(34)&amp;A18&amp;CHAR(34)&amp;" = "&amp;C18</f>
+        <f t="shared" si="2"/>
         <v>"s_null_c.mpb" = Screen after game over or log out</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B19" s="8">
-        <f>LEN(A19)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D19" s="13" t="str">
-        <f>"["&amp;IF(LEN(A19)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A19,1,1))),"")&amp;IF(LEN(A19)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A19,2,1))),"")&amp;IF(LEN(A19)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A19,3,1))),"")&amp;IF(LEN(A19)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A19,4,1))),"")&amp;IF(LEN(A19)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A19,5,1))),"")&amp;IF(LEN(A19)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A19,6,1))),"")&amp;IF(LEN(A19)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A19,7,1))),"")&amp;IF(LEN(A19)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A19,8,1))),"")&amp;IF(LEN(A19)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A19,9,1))),"")&amp;IF(LEN(A19)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A19,10,1))),"")&amp;IF(LEN(A19)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A19,11,1))),"")&amp;IF(LEN(A19)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A19,12,1))),"")&amp;IF(LEN(A19)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A19,13,1))),"")&amp;IF(LEN(A19)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A19,14,1))),"")&amp;IF(LEN(A19)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A19,15,1))),"")&amp;IF(LEN(A19)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A19,16,1))),"")&amp;IF(LEN(A19)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A19,17,1))),"")&amp;IF(LEN(A19)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A19,18,1))),"")&amp;IF(LEN(A19)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A19,19,1))),"")&amp;IF(LEN(A19)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A19,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x73,0x5F,0x74,0x69,0x74,0x6C,0x65,0x32,0x2E,0x73,0x74,0x6D,0x0]</v>
       </c>
       <c r="E19" s="8" t="str">
-        <f>CHAR(34)&amp;A19&amp;CHAR(34)&amp;" = "&amp;C19</f>
+        <f t="shared" si="2"/>
         <v>"s_title2.stm" = The Main menu</v>
       </c>
     </row>
@@ -3313,18 +5114,18 @@
         <v>138</v>
       </c>
       <c r="B20" s="8">
-        <f>LEN(A20)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D20" s="13" t="str">
-        <f>"["&amp;IF(LEN(A20)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A20,1,1))),"")&amp;IF(LEN(A20)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A20,2,1))),"")&amp;IF(LEN(A20)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A20,3,1))),"")&amp;IF(LEN(A20)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A20,4,1))),"")&amp;IF(LEN(A20)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A20,5,1))),"")&amp;IF(LEN(A20)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A20,6,1))),"")&amp;IF(LEN(A20)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A20,7,1))),"")&amp;IF(LEN(A20)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A20,8,1))),"")&amp;IF(LEN(A20)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A20,9,1))),"")&amp;IF(LEN(A20)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A20,10,1))),"")&amp;IF(LEN(A20)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A20,11,1))),"")&amp;IF(LEN(A20)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A20,12,1))),"")&amp;IF(LEN(A20)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A20,13,1))),"")&amp;IF(LEN(A20)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A20,14,1))),"")&amp;IF(LEN(A20)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A20,15,1))),"")&amp;IF(LEN(A20)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A20,16,1))),"")&amp;IF(LEN(A20)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A20,17,1))),"")&amp;IF(LEN(A20)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A20,18,1))),"")&amp;IF(LEN(A20)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A20,19,1))),"")&amp;IF(LEN(A20)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A20,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x73,0x5F,0x75,0x72,0x61,0x5F,0x63,0x2E,0x73,0x74,0x70,0x0]</v>
       </c>
       <c r="E20" s="8" t="str">
-        <f>CHAR(34)&amp;A20&amp;CHAR(34)&amp;" = "&amp;C20</f>
+        <f t="shared" si="2"/>
         <v>"s_ura_c.stp" = Uranus boss (start &amp; end)</v>
       </c>
     </row>
@@ -3333,38 +5134,38 @@
         <v>137</v>
       </c>
       <c r="B21" s="8">
-        <f>LEN(A21)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D21" s="13" t="str">
-        <f>"["&amp;IF(LEN(A21)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A21,1,1))),"")&amp;IF(LEN(A21)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A21,2,1))),"")&amp;IF(LEN(A21)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A21,3,1))),"")&amp;IF(LEN(A21)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A21,4,1))),"")&amp;IF(LEN(A21)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A21,5,1))),"")&amp;IF(LEN(A21)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A21,6,1))),"")&amp;IF(LEN(A21)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A21,7,1))),"")&amp;IF(LEN(A21)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A21,8,1))),"")&amp;IF(LEN(A21)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A21,9,1))),"")&amp;IF(LEN(A21)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A21,10,1))),"")&amp;IF(LEN(A21)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A21,11,1))),"")&amp;IF(LEN(A21)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A21,12,1))),"")&amp;IF(LEN(A21)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A21,13,1))),"")&amp;IF(LEN(A21)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A21,14,1))),"")&amp;IF(LEN(A21)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A21,15,1))),"")&amp;IF(LEN(A21)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A21,16,1))),"")&amp;IF(LEN(A21)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A21,17,1))),"")&amp;IF(LEN(A21)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A21,18,1))),"")&amp;IF(LEN(A21)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A21,19,1))),"")&amp;IF(LEN(A21)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A21,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x73,0x5F,0x76,0x65,0x6E,0x5F,0x63,0x2E,0x73,0x74,0x70,0x0]</v>
       </c>
       <c r="E21" s="8" t="str">
-        <f>CHAR(34)&amp;A21&amp;CHAR(34)&amp;" = "&amp;C21</f>
+        <f t="shared" si="2"/>
         <v>"s_ven_c.stp" = Venus boss (start &amp; end)</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B22" s="8">
-        <f>LEN(A22)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D22" s="13" t="str">
-        <f>"["&amp;IF(LEN(A22)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A22,1,1))),"")&amp;IF(LEN(A22)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A22,2,1))),"")&amp;IF(LEN(A22)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A22,3,1))),"")&amp;IF(LEN(A22)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A22,4,1))),"")&amp;IF(LEN(A22)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A22,5,1))),"")&amp;IF(LEN(A22)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A22,6,1))),"")&amp;IF(LEN(A22)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A22,7,1))),"")&amp;IF(LEN(A22)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A22,8,1))),"")&amp;IF(LEN(A22)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A22,9,1))),"")&amp;IF(LEN(A22)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A22,10,1))),"")&amp;IF(LEN(A22)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A22,11,1))),"")&amp;IF(LEN(A22)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A22,12,1))),"")&amp;IF(LEN(A22)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A22,13,1))),"")&amp;IF(LEN(A22)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A22,14,1))),"")&amp;IF(LEN(A22)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A22,15,1))),"")&amp;IF(LEN(A22)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A22,16,1))),"")&amp;IF(LEN(A22)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A22,17,1))),"")&amp;IF(LEN(A22)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A22,18,1))),"")&amp;IF(LEN(A22)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A22,19,1))),"")&amp;IF(LEN(A22)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A22,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x75,0x72,0x61,0x5F,0x63,0x68,0x2E,0x6D,0x64,0x70,0x0]</v>
       </c>
       <c r="E22" s="8" t="str">
-        <f>CHAR(34)&amp;A22&amp;CHAR(34)&amp;" = "&amp;C22</f>
+        <f t="shared" si="2"/>
         <v>"ura_ch.mdp" = Uranus boss (pre battle)</v>
       </c>
     </row>
@@ -3373,38 +5174,38 @@
         <v>136</v>
       </c>
       <c r="B23" s="8">
-        <f>LEN(A23)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D23" s="13" t="str">
-        <f>"["&amp;IF(LEN(A23)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A23,1,1))),"")&amp;IF(LEN(A23)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A23,2,1))),"")&amp;IF(LEN(A23)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A23,3,1))),"")&amp;IF(LEN(A23)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A23,4,1))),"")&amp;IF(LEN(A23)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A23,5,1))),"")&amp;IF(LEN(A23)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A23,6,1))),"")&amp;IF(LEN(A23)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A23,7,1))),"")&amp;IF(LEN(A23)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A23,8,1))),"")&amp;IF(LEN(A23)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A23,9,1))),"")&amp;IF(LEN(A23)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A23,10,1))),"")&amp;IF(LEN(A23)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A23,11,1))),"")&amp;IF(LEN(A23)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A23,12,1))),"")&amp;IF(LEN(A23)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A23,13,1))),"")&amp;IF(LEN(A23)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A23,14,1))),"")&amp;IF(LEN(A23)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A23,15,1))),"")&amp;IF(LEN(A23)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A23,16,1))),"")&amp;IF(LEN(A23)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A23,17,1))),"")&amp;IF(LEN(A23)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A23,18,1))),"")&amp;IF(LEN(A23)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A23,19,1))),"")&amp;IF(LEN(A23)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A23,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x76,0x65,0x6E,0x5F,0x63,0x68,0x2E,0x6D,0x64,0x70,0x0]</v>
       </c>
       <c r="E23" s="8" t="str">
-        <f>CHAR(34)&amp;A23&amp;CHAR(34)&amp;" = "&amp;C23</f>
+        <f t="shared" si="2"/>
         <v>"ven_ch.mdp" = Venus boss (pre battle)</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B24" s="8">
-        <f>LEN(A24)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D24" s="13" t="str">
-        <f>"["&amp;IF(LEN(A24)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A24,1,1))),"")&amp;IF(LEN(A24)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A24,2,1))),"")&amp;IF(LEN(A24)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A24,3,1))),"")&amp;IF(LEN(A24)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A24,4,1))),"")&amp;IF(LEN(A24)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A24,5,1))),"")&amp;IF(LEN(A24)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A24,6,1))),"")&amp;IF(LEN(A24)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A24,7,1))),"")&amp;IF(LEN(A24)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A24,8,1))),"")&amp;IF(LEN(A24)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A24,9,1))),"")&amp;IF(LEN(A24)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A24,10,1))),"")&amp;IF(LEN(A24)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A24,11,1))),"")&amp;IF(LEN(A24)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A24,12,1))),"")&amp;IF(LEN(A24)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A24,13,1))),"")&amp;IF(LEN(A24)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A24,14,1))),"")&amp;IF(LEN(A24)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A24,15,1))),"")&amp;IF(LEN(A24)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A24,16,1))),"")&amp;IF(LEN(A24)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A24,17,1))),"")&amp;IF(LEN(A24)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A24,18,1))),"")&amp;IF(LEN(A24)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A24,19,1))),"")&amp;IF(LEN(A24)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A24,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" si="1"/>
         <v>[0x76,0x65,0x6E,0x75,0x73,0x2E,0x6E,0x62,0x0]</v>
       </c>
       <c r="E24" s="8" t="str">
-        <f>CHAR(34)&amp;A24&amp;CHAR(34)&amp;" = "&amp;C24</f>
+        <f t="shared" si="2"/>
         <v>"venus.nb" = Venus boss (pre battle)</v>
       </c>
     </row>
@@ -3413,18 +5214,18 @@
         <v>144</v>
       </c>
       <c r="B25" s="8">
-        <f t="shared" ref="B2:B36" si="0">LEN(A25)</f>
+        <f t="shared" ref="B25:B36" si="3">LEN(A25)</f>
         <v>10</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D25" s="13" t="str">
-        <f t="shared" ref="D2:D36" si="1">"["&amp;IF(LEN(A25)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A25,1,1))),"")&amp;IF(LEN(A25)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A25,2,1))),"")&amp;IF(LEN(A25)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A25,3,1))),"")&amp;IF(LEN(A25)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A25,4,1))),"")&amp;IF(LEN(A25)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A25,5,1))),"")&amp;IF(LEN(A25)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A25,6,1))),"")&amp;IF(LEN(A25)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A25,7,1))),"")&amp;IF(LEN(A25)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A25,8,1))),"")&amp;IF(LEN(A25)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A25,9,1))),"")&amp;IF(LEN(A25)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A25,10,1))),"")&amp;IF(LEN(A25)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A25,11,1))),"")&amp;IF(LEN(A25)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A25,12,1))),"")&amp;IF(LEN(A25)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A25,13,1))),"")&amp;IF(LEN(A25)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A25,14,1))),"")&amp;IF(LEN(A25)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A25,15,1))),"")&amp;IF(LEN(A25)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A25,16,1))),"")&amp;IF(LEN(A25)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A25,17,1))),"")&amp;IF(LEN(A25)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A25,18,1))),"")&amp;IF(LEN(A25)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A25,19,1))),"")&amp;IF(LEN(A25)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A25,20,1))),"")&amp;",0x0]"</f>
+        <f t="shared" ref="D25:D36" si="4">"["&amp;IF(LEN(A25)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A25,1,1))),"")&amp;IF(LEN(A25)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A25,2,1))),"")&amp;IF(LEN(A25)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A25,3,1))),"")&amp;IF(LEN(A25)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A25,4,1))),"")&amp;IF(LEN(A25)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A25,5,1))),"")&amp;IF(LEN(A25)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A25,6,1))),"")&amp;IF(LEN(A25)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A25,7,1))),"")&amp;IF(LEN(A25)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A25,8,1))),"")&amp;IF(LEN(A25)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A25,9,1))),"")&amp;IF(LEN(A25)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A25,10,1))),"")&amp;IF(LEN(A25)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A25,11,1))),"")&amp;IF(LEN(A25)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A25,12,1))),"")&amp;IF(LEN(A25)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A25,13,1))),"")&amp;IF(LEN(A25)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A25,14,1))),"")&amp;IF(LEN(A25)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A25,15,1))),"")&amp;IF(LEN(A25)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A25,16,1))),"")&amp;IF(LEN(A25)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A25,17,1))),"")&amp;IF(LEN(A25)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A25,18,1))),"")&amp;IF(LEN(A25)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A25,19,1))),"")&amp;IF(LEN(A25)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A25,20,1))),"")&amp;",0x0]"</f>
         <v>[0x4D,0x61,0x72,0x73,0x5B,0x4D,0x65,0x67,0x61,0x5D,0x0]</v>
       </c>
       <c r="E25" s="8" t="str">
-        <f t="shared" ref="E3:E36" si="2">CHAR(34)&amp;A25&amp;CHAR(34)&amp;" = "&amp;C25</f>
+        <f t="shared" ref="E25:E36" si="5">CHAR(34)&amp;A25&amp;CHAR(34)&amp;" = "&amp;C25</f>
         <v>"Mars[Mega]" = Mars Mega form</v>
       </c>
     </row>
@@ -3433,18 +5234,18 @@
         <v>145</v>
       </c>
       <c r="B26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D26" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x4D,0x61,0x72,0x73,0x5B,0x47,0x69,0x67,0x61,0x5D,0x0]</v>
       </c>
       <c r="E26" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Mars[Giga]" = Mars Giga form</v>
       </c>
     </row>
@@ -3453,18 +5254,18 @@
         <v>146</v>
       </c>
       <c r="B27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D27" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x4D,0x61,0x72,0x73,0x5B,0x54,0x65,0x72,0x61,0x5D,0x0]</v>
       </c>
       <c r="E27" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Mars[Tera]" = Mars Tera form</v>
       </c>
     </row>
@@ -3473,18 +5274,18 @@
         <v>147</v>
       </c>
       <c r="B28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D28" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x55,0x72,0x61,0x6E,0x75,0x73,0x5B,0x4D,0x65,0x67,0x61,0x5D,0x0]</v>
       </c>
       <c r="E28" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Uranus[Mega]" = Uranus Mega form</v>
       </c>
     </row>
@@ -3493,18 +5294,18 @@
         <v>148</v>
       </c>
       <c r="B29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D29" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x55,0x72,0x61,0x6E,0x75,0x73,0x5B,0x47,0x69,0x67,0x61,0x5D,0x0]</v>
       </c>
       <c r="E29" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Uranus[Giga]" = Uranus Giga form</v>
       </c>
     </row>
@@ -3513,18 +5314,18 @@
         <v>149</v>
       </c>
       <c r="B30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D30" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x55,0x72,0x61,0x6E,0x75,0x73,0x5B,0x54,0x65,0x72,0x61,0x5D,0x0]</v>
       </c>
       <c r="E30" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Uranus[Tera]" = Uranus Tera form</v>
       </c>
     </row>
@@ -3533,18 +5334,18 @@
         <v>150</v>
       </c>
       <c r="B31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D31" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x56,0x65,0x6E,0x75,0x73,0x5B,0x4D,0x65,0x67,0x61,0x5D,0x0]</v>
       </c>
       <c r="E31" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Venus[Mega]" = Venus Mega form</v>
       </c>
     </row>
@@ -3553,100 +5354,142 @@
         <v>151</v>
       </c>
       <c r="B32" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D32" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x56,0x65,0x6E,0x75,0x73,0x5B,0x47,0x69,0x67,0x61,0x5D,0x0]</v>
       </c>
       <c r="E32" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Venus[Giga]" = Venus Giga form</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>152</v>
       </c>
       <c r="B33" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D33" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x56,0x65,0x6E,0x75,0x73,0x5B,0x54,0x65,0x72,0x61,0x5D,0x0]</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Venus[Tera]" = Venus Tera form</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D34" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x45,0x61,0x72,0x74,0x68,0x5B,0x4D,0x65,0x67,0x61,0x5D,0x0]</v>
       </c>
       <c r="E34" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Earth[Mega]" = Earth Mega form</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D35" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x45,0x61,0x72,0x74,0x68,0x5B,0x47,0x69,0x67,0x61,0x5D,0x0]</v>
       </c>
       <c r="E35" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Earth[Giga]" = Earth Giga form</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B36" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D36" s="13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>[0x45,0x61,0x72,0x74,0x68,0x5B,0x54,0x65,0x72,0x61,0x5D,0x0]</v>
       </c>
       <c r="E36" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>"Earth[Tera]" = Earth Tera form</v>
       </c>
+    </row>
+    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B37" s="8">
+        <f t="shared" ref="B37:B38" si="6">LEN(A37)</f>
+        <v>8</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="13" t="str">
+        <f t="shared" ref="D37:D38" si="7">"["&amp;IF(LEN(A37)&gt;=1,"0x"&amp;DEC2HEX(CODE(MID(A37,1,1))),"")&amp;IF(LEN(A37)&gt;=2,",0x"&amp;DEC2HEX(CODE(MID(A37,2,1))),"")&amp;IF(LEN(A37)&gt;=3,",0x"&amp;DEC2HEX(CODE(MID(A37,3,1))),"")&amp;IF(LEN(A37)&gt;=4,",0x"&amp;DEC2HEX(CODE(MID(A37,4,1))),"")&amp;IF(LEN(A37)&gt;=5,",0x"&amp;DEC2HEX(CODE(MID(A37,5,1))),"")&amp;IF(LEN(A37)&gt;=6,",0x"&amp;DEC2HEX(CODE(MID(A37,6,1))),"")&amp;IF(LEN(A37)&gt;=7,",0x"&amp;DEC2HEX(CODE(MID(A37,7,1))),"")&amp;IF(LEN(A37)&gt;=8,",0x"&amp;DEC2HEX(CODE(MID(A37,8,1))),"")&amp;IF(LEN(A37)&gt;=9,",0x"&amp;DEC2HEX(CODE(MID(A37,9,1))),"")&amp;IF(LEN(A37)&gt;=10,",0x"&amp;DEC2HEX(CODE(MID(A37,10,1))),"")&amp;IF(LEN(A37)&gt;=11,",0x"&amp;DEC2HEX(CODE(MID(A37,11,1))),"")&amp;IF(LEN(A37)&gt;=12,",0x"&amp;DEC2HEX(CODE(MID(A37,12,1))),"")&amp;IF(LEN(A37)&gt;=13,",0x"&amp;DEC2HEX(CODE(MID(A37,13,1))),"")&amp;IF(LEN(A37)&gt;=14,",0x"&amp;DEC2HEX(CODE(MID(A37,14,1))),"")&amp;IF(LEN(A37)&gt;=15,",0x"&amp;DEC2HEX(CODE(MID(A37,15,1))),"")&amp;IF(LEN(A37)&gt;=16,",0x"&amp;DEC2HEX(CODE(MID(A37,16,1))),"")&amp;IF(LEN(A37)&gt;=17,",0x"&amp;DEC2HEX(CODE(MID(A37,17,1))),"")&amp;IF(LEN(A37)&gt;=18,",0x"&amp;DEC2HEX(CODE(MID(A37,18,1))),"")&amp;IF(LEN(A37)&gt;=19,",0x"&amp;DEC2HEX(CODE(MID(A37,19,1))),"")&amp;IF(LEN(A37)&gt;=20,",0x"&amp;DEC2HEX(CODE(MID(A37,20,1))),"")&amp;",0x0]"</f>
+        <v>[0x48,0x44,0x52,0x2D,0x30,0x31,0x37,0x38,0x0]</v>
+      </c>
+      <c r="E37" s="8" t="str">
+        <f t="shared" ref="E37:E38" si="8">CHAR(34)&amp;A37&amp;CHAR(34)&amp;" = "&amp;C37</f>
+        <v>"HDR-0178" = Japan GD-ROM Name</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" s="8">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D38" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>[0x4D,0x4B,0x2D,0x35,0x31,0x31,0x39,0x32,0x35,0x30,0x0]</v>
+      </c>
+      <c r="E38" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>"MK-5119250" = EU GD-ROM Name</v>
+      </c>
+      <c r="F38" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:E24">
@@ -3779,7 +5622,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>13</v>
@@ -3789,7 +5632,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="14.45" x14ac:dyDescent="0.35">
@@ -4180,7 +6023,7 @@
     </row>
     <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>57</v>
@@ -4188,7 +6031,7 @@
     </row>
     <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>58</v>
@@ -4196,7 +6039,7 @@
     </row>
     <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>59</v>
@@ -4204,7 +6047,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>60</v>
@@ -4212,7 +6055,7 @@
     </row>
     <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>61</v>
@@ -4228,7 +6071,7 @@
     </row>
     <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>63</v>
@@ -4264,9 +6107,1742 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="11.7109375" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <f>Achievements!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>Achievements!C2</f>
+        <v>Earth</v>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>Achievements!F2</f>
+        <v>Complete Area 1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f t="shared" ref="I2:I51" si="0">IF(COUNTIF(D2:H2,"X")=5,"YES","NO")</f>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <f>Achievements!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>Achievements!C3</f>
+        <v>Mars</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>Achievements!F3</f>
+        <v>Complete Area 2</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <f>Achievements!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>Achievements!C4</f>
+        <v>Venus</v>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>Achievements!F4</f>
+        <v>Complete Area 3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <f>Achievements!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>Achievements!C5</f>
+        <v>Uranus</v>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f>Achievements!F5</f>
+        <v>Complete Area 4</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <f>Achievements!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>Achievements!C6</f>
+        <v>Eden</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>Achievements!F6</f>
+        <v>Complete Area 5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <f>Achievements!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>Achievements!C7</f>
+        <v>Lost Area</v>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f>Achievements!F7</f>
+        <v>Complete Lost Area</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <f>Achievements!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>Achievements!C8</f>
+        <v>Trance Mission</v>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f>Achievements!F8</f>
+        <v>Score more than 150,000 in the Trance Mission</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <f>Achievements!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>Achievements!C9</f>
+        <v>Boss Rush</v>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>Achievements!F9</f>
+        <v>Complete Boss Rush</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <f>Achievements!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>Achievements!C10</f>
+        <v>Direct Assault Normal</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f>Achievements!F10</f>
+        <v>Complete Direct Assault Normal</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>Achievements!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>Achievements!C11</f>
+        <v>Direct Assault Ambient</v>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f>Achievements!F11</f>
+        <v>Complete Direct Assault Ambient</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>Achievements!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>Achievements!C12</f>
+        <v>Direct Assault Punk</v>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>Achievements!F12</f>
+        <v>Complete Direct Assault Punk</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>Achievements!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>Achievements!C13</f>
+        <v>Direct Assault Old-school</v>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f>Achievements!F13</f>
+        <v>Complete Direct Assault Old-school</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>Achievements!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f>Achievements!C14</f>
+        <v>Direct Assault Psychedelic</v>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f>Achievements!F14</f>
+        <v>Complete Direct Assault Psychedelic</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>Achievements!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f>Achievements!C15</f>
+        <v>Direct Assault Trance</v>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f>Achievements!F15</f>
+        <v>Complete Direct Assault Trance</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>Achievements!A16</f>
+        <v>18</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>Achievements!C16</f>
+        <v>Giga Earth</v>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f>Achievements!F16</f>
+        <v>Defeat the Giga form Earth boss in Area 1</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>Achievements!A17</f>
+        <v>19</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f>Achievements!C17</f>
+        <v>Giga Mars</v>
+      </c>
+      <c r="C17" s="8" t="str">
+        <f>Achievements!F17</f>
+        <v>Defeat the Giga form Mars boss in Area 2</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>Achievements!A18</f>
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="str">
+        <f>Achievements!C18</f>
+        <v>Giga Venus</v>
+      </c>
+      <c r="C18" s="8" t="str">
+        <f>Achievements!F18</f>
+        <v>Defeat the Giga form Venus boss in Area 3</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>Achievements!A19</f>
+        <v>21</v>
+      </c>
+      <c r="B19" s="8" t="str">
+        <f>Achievements!C19</f>
+        <v>Giga Uranus</v>
+      </c>
+      <c r="C19" s="8" t="str">
+        <f>Achievements!F19</f>
+        <v>Defeat the Giga form Uranus boss in Area 4</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>Achievements!A20</f>
+        <v>22</v>
+      </c>
+      <c r="B20" s="8" t="str">
+        <f>Achievements!C20</f>
+        <v>Tera Earth</v>
+      </c>
+      <c r="C20" s="8" t="str">
+        <f>Achievements!F20</f>
+        <v>Defeat the Tera form Earth boss in Area 1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>Achievements!A21</f>
+        <v>23</v>
+      </c>
+      <c r="B21" s="8" t="str">
+        <f>Achievements!C21</f>
+        <v>Tera Mars</v>
+      </c>
+      <c r="C21" s="8" t="str">
+        <f>Achievements!F21</f>
+        <v>Defeat the Tera form Mars boss in Area 2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>Achievements!A22</f>
+        <v>24</v>
+      </c>
+      <c r="B22" s="8" t="str">
+        <f>Achievements!C22</f>
+        <v>Tera Venus</v>
+      </c>
+      <c r="C22" s="8" t="str">
+        <f>Achievements!F22</f>
+        <v>Defeat the Tera form Venus boss in Area 3</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>Achievements!A23</f>
+        <v>25</v>
+      </c>
+      <c r="B23" s="8" t="str">
+        <f>Achievements!C23</f>
+        <v>Tera Uranus</v>
+      </c>
+      <c r="C23" s="8" t="str">
+        <f>Achievements!F23</f>
+        <v>Defeat the Tera form Uranus boss in Area 4</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>Achievements!A24</f>
+        <v>26</v>
+      </c>
+      <c r="B24" s="8" t="str">
+        <f>Achievements!C24</f>
+        <v>Earth Evolved</v>
+      </c>
+      <c r="C24" s="8" t="str">
+        <f>Achievements!F24</f>
+        <v>Defeat the Earth boss in Area 1 without Devolving</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>Achievements!A25</f>
+        <v>27</v>
+      </c>
+      <c r="B25" s="8" t="str">
+        <f>Achievements!C25</f>
+        <v>Mars Evolved</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f>Achievements!F25</f>
+        <v>Defeat the Mars boss in Area 2 without Devolving</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <f>Achievements!A26</f>
+        <v>28</v>
+      </c>
+      <c r="B26" s="8" t="str">
+        <f>Achievements!C26</f>
+        <v>Venus Evolved</v>
+      </c>
+      <c r="C26" s="8" t="str">
+        <f>Achievements!F26</f>
+        <v>Defeat the Venus boss in Area 3 without Devolving</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <f>Achievements!A27</f>
+        <v>29</v>
+      </c>
+      <c r="B27" s="8" t="str">
+        <f>Achievements!C27</f>
+        <v>Uranus Evolved</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f>Achievements!F27</f>
+        <v>Defeat the Uranus boss in Area 4 without Devolving</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <f>Achievements!A28</f>
+        <v>30</v>
+      </c>
+      <c r="B28" s="8" t="str">
+        <f>Achievements!C28</f>
+        <v>Apex Earth Evolution</v>
+      </c>
+      <c r="C28" s="8" t="str">
+        <f>Achievements!F28</f>
+        <v>Defeat the Eden Earth boss in Area 5 without Devolving</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <f>Achievements!A29</f>
+        <v>31</v>
+      </c>
+      <c r="B29" s="8" t="str">
+        <f>Achievements!C29</f>
+        <v>Apex Mars Evolution</v>
+      </c>
+      <c r="C29" s="8" t="str">
+        <f>Achievements!F29</f>
+        <v>Defeat the Eden Mars boss in Area 5 without Devolving</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f>Achievements!A30</f>
+        <v>32</v>
+      </c>
+      <c r="B30" s="8" t="str">
+        <f>Achievements!C30</f>
+        <v>Apex Venus Evolution</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>Achievements!F30</f>
+        <v>Defeat the Eden Venus boss in Area 5 without Devolving</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <f>Achievements!A31</f>
+        <v>33</v>
+      </c>
+      <c r="B31" s="8" t="str">
+        <f>Achievements!C31</f>
+        <v>Apex Uranus Evolution</v>
+      </c>
+      <c r="C31" s="8" t="str">
+        <f>Achievements!F31</f>
+        <v>Defeat the Eden Uranus boss in Area 5 without Devolving</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <f>Achievements!A32</f>
+        <v>34</v>
+      </c>
+      <c r="B32" s="8" t="str">
+        <f>Achievements!C32</f>
+        <v>Final Evolution</v>
+      </c>
+      <c r="C32" s="8" t="str">
+        <f>Achievements!F32</f>
+        <v>Defeat the Final Eden boss in Area 5 without Devolving</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <f>Achievements!A33</f>
+        <v>35</v>
+      </c>
+      <c r="B33" s="8" t="str">
+        <f>Achievements!C33</f>
+        <v>Primal Earth</v>
+      </c>
+      <c r="C33" s="8" t="str">
+        <f>Achievements!F33</f>
+        <v>Beat Area 1 without evolving past the default starting level 1 form in play or score attack mode</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f>Achievements!A34</f>
+        <v>36</v>
+      </c>
+      <c r="B34" s="8" t="str">
+        <f>Achievements!C34</f>
+        <v>Primal Mars</v>
+      </c>
+      <c r="C34" s="8" t="str">
+        <f>Achievements!F34</f>
+        <v>Beat Area 2 without evolving past the default starting level 1 form in play or score attack mode</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <f>Achievements!A35</f>
+        <v>37</v>
+      </c>
+      <c r="B35" s="8" t="str">
+        <f>Achievements!C35</f>
+        <v>Primal Venus</v>
+      </c>
+      <c r="C35" s="8" t="str">
+        <f>Achievements!F35</f>
+        <v>Beat Area 3 without evolving past the default starting level 1 form in play or score attack mode</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f>Achievements!A36</f>
+        <v>38</v>
+      </c>
+      <c r="B36" s="8" t="str">
+        <f>Achievements!C36</f>
+        <v>Primal Uranus</v>
+      </c>
+      <c r="C36" s="8" t="str">
+        <f>Achievements!F36</f>
+        <v>Beat Area 4 without evolving past the default starting level 1 form in play or score attack mode</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f>Achievements!A37</f>
+        <v>40</v>
+      </c>
+      <c r="B37" s="8" t="str">
+        <f>Achievements!C37</f>
+        <v>Primal Lost Area</v>
+      </c>
+      <c r="C37" s="8" t="str">
+        <f>Achievements!F37</f>
+        <v>Beat Lost Area without evolving past the default starting level 1 form</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f>Achievements!A38</f>
+        <v>41</v>
+      </c>
+      <c r="B38" s="8" t="str">
+        <f>Achievements!C38</f>
+        <v>Earth High Score</v>
+      </c>
+      <c r="C38" s="8" t="str">
+        <f>Achievements!F38</f>
+        <v>Score 150,000 or higher in Area 1 score attack</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <f>Achievements!A39</f>
+        <v>42</v>
+      </c>
+      <c r="B39" s="8" t="str">
+        <f>Achievements!C39</f>
+        <v>Mars High Score</v>
+      </c>
+      <c r="C39" s="8" t="str">
+        <f>Achievements!F39</f>
+        <v>Score 150,000 or higher in Area 2 score attack</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <f>Achievements!A40</f>
+        <v>43</v>
+      </c>
+      <c r="B40" s="8" t="str">
+        <f>Achievements!C40</f>
+        <v>Venus High Score</v>
+      </c>
+      <c r="C40" s="8" t="str">
+        <f>Achievements!F40</f>
+        <v>Score 150,000 or higher in Area 3 score attack</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <f>Achievements!A41</f>
+        <v>44</v>
+      </c>
+      <c r="B41" s="8" t="str">
+        <f>Achievements!C41</f>
+        <v>Uranus High Score</v>
+      </c>
+      <c r="C41" s="8" t="str">
+        <f>Achievements!F41</f>
+        <v>Score 150,000 or higher in Area 4 score attack</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <f>Achievements!A42</f>
+        <v>45</v>
+      </c>
+      <c r="B42" s="8" t="str">
+        <f>Achievements!C42</f>
+        <v>Eden High Score</v>
+      </c>
+      <c r="C42" s="8" t="str">
+        <f>Achievements!F42</f>
+        <v>Score 300,000 or higher in Area 5 score attack</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <f>Achievements!A43</f>
+        <v>46</v>
+      </c>
+      <c r="B43" s="8" t="str">
+        <f>Achievements!C43</f>
+        <v>Lost Area High Score</v>
+      </c>
+      <c r="C43" s="8" t="str">
+        <f>Achievements!F43</f>
+        <v>Score 150,000 or higher in the Lost Area</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <f>Achievements!A44</f>
+        <v>47</v>
+      </c>
+      <c r="B44" s="8" t="str">
+        <f>Achievements!C44</f>
+        <v>Boss Rush High Score</v>
+      </c>
+      <c r="C44" s="8" t="str">
+        <f>Achievements!F44</f>
+        <v>Score 300,000 or higher in Boss Rushk</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <f>Achievements!A45</f>
+        <v>48</v>
+      </c>
+      <c r="B45" s="8" t="str">
+        <f>Achievements!C45</f>
+        <v>Direct Assault High Score</v>
+      </c>
+      <c r="C45" s="8" t="str">
+        <f>Achievements!F45</f>
+        <v>Score 1,000,000 or higher in any Direct Assault</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <f>Achievements!A46</f>
+        <v>49</v>
+      </c>
+      <c r="B46" s="8" t="str">
+        <f>Achievements!C46</f>
+        <v>Autonomous</v>
+      </c>
+      <c r="C46" s="8" t="str">
+        <f>Achievements!F46</f>
+        <v>Reach Evolution Level 02</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <f>Achievements!A47</f>
+        <v>50</v>
+      </c>
+      <c r="B47" s="8" t="str">
+        <f>Achievements!C47</f>
+        <v>Cognitive</v>
+      </c>
+      <c r="C47" s="8" t="str">
+        <f>Achievements!F47</f>
+        <v>Reach Evolution Level 03</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <f>Achievements!A48</f>
+        <v>51</v>
+      </c>
+      <c r="B48" s="8" t="str">
+        <f>Achievements!C48</f>
+        <v>Analysis</v>
+      </c>
+      <c r="C48" s="8" t="str">
+        <f>Achievements!F48</f>
+        <v>Reach Evolution Level 04</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <f>Achievements!A49</f>
+        <v>52</v>
+      </c>
+      <c r="B49" s="8" t="str">
+        <f>Achievements!C49</f>
+        <v>Synthesis</v>
+      </c>
+      <c r="C49" s="8" t="str">
+        <f>Achievements!F49</f>
+        <v>Reach Evolution Level 05</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <f>Achievements!A50</f>
+        <v>53</v>
+      </c>
+      <c r="B50" s="8" t="str">
+        <f>Achievements!C50</f>
+        <v>Enlightenment</v>
+      </c>
+      <c r="C50" s="8" t="str">
+        <f>Achievements!F50</f>
+        <v>Reach Evolution Level 06</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <f>Achievements!A51</f>
+        <v>54</v>
+      </c>
+      <c r="B51" s="8" t="str">
+        <f>Achievements!C51</f>
+        <v>Maximum Overdrive</v>
+      </c>
+      <c r="C51" s="8" t="str">
+        <f>Achievements!F51</f>
+        <v>Have 4 overdrive attacks built up at once</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>YES</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D52" s="8" t="str">
+        <f>COUNTIF(D2:D51,"X")&amp;" /50"</f>
+        <v>50 /50</v>
+      </c>
+      <c r="E52" s="8" t="str">
+        <f t="shared" ref="E52:H52" si="1">COUNTIF(E2:E51,"X")&amp;" /50"</f>
+        <v>50 /50</v>
+      </c>
+      <c r="F52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>50 /50</v>
+      </c>
+      <c r="G52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>50 /50</v>
+      </c>
+      <c r="H52" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>50 /50</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>COUNTIF(I2:I51,"YES")&amp;" /50"</f>
+        <v>50 /50</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1">
+    <sortState ref="A2:I56">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4332,12 +7908,9 @@
       <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" s="8" t="str">
         <f t="shared" ref="I2:I30" si="0">IF(COUNTIF(D2:H2,"X")=5,"YES","NO")</f>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -4365,12 +7938,9 @@
       <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -4398,12 +7968,9 @@
       <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -4431,12 +7998,9 @@
       <c r="G5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -4464,12 +8028,9 @@
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
@@ -4497,12 +8058,9 @@
       <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="I7" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -4530,12 +8088,10 @@
       <c r="G8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H8" s="8"/>
       <c r="I8" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -4563,12 +8119,10 @@
       <c r="G9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -4596,12 +8150,10 @@
       <c r="G10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H10" s="8"/>
       <c r="I10" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -4629,12 +8181,10 @@
       <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H11" s="8"/>
       <c r="I11" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4662,12 +8212,10 @@
       <c r="G12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4695,12 +8243,10 @@
       <c r="G13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -4728,12 +8274,10 @@
       <c r="G14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -4761,12 +8305,10 @@
       <c r="G15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4794,12 +8336,10 @@
       <c r="G16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -4827,12 +8367,10 @@
       <c r="G17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4860,12 +8398,10 @@
       <c r="G18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H18" s="8"/>
       <c r="I18" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4893,12 +8429,10 @@
       <c r="G19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H19" s="8"/>
       <c r="I19" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -4926,12 +8460,10 @@
       <c r="G20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H20" s="8"/>
       <c r="I20" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4959,12 +8491,10 @@
       <c r="G21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H21" s="8"/>
       <c r="I21" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -4992,12 +8522,10 @@
       <c r="G22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H22" s="8"/>
       <c r="I22" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -5025,12 +8553,10 @@
       <c r="G23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H23" s="8"/>
       <c r="I23" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5058,12 +8584,10 @@
       <c r="G24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H24" s="8"/>
       <c r="I24" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -5091,12 +8615,10 @@
       <c r="G25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H25" s="8"/>
       <c r="I25" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -5124,12 +8646,10 @@
       <c r="G26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H26" s="8"/>
       <c r="I26" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -5157,12 +8677,10 @@
       <c r="G27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H27" s="8"/>
       <c r="I27" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -5190,12 +8708,10 @@
       <c r="G28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H28" s="8"/>
       <c r="I28" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5223,12 +8739,10 @@
       <c r="G29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H29" s="8"/>
       <c r="I29" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -5256,12 +8770,10 @@
       <c r="G30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H30" s="8"/>
       <c r="I30" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5289,12 +8801,10 @@
       <c r="G31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H31" s="8"/>
       <c r="I31" s="8" t="str">
         <f t="shared" ref="I31:I51" si="1">IF(COUNTIF(D31:H31,"X")=5,"YES","NO")</f>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5322,12 +8832,10 @@
       <c r="G32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -5341,7 +8849,7 @@
       </c>
       <c r="C33" s="8" t="str">
         <f>Achievements!F33</f>
-        <v>Beat Area 1 without Evolving (form level 2 or lower)</v>
+        <v>Beat Area 1 without evolving past the default starting level 1 form in play or score attack mode</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>20</v>
@@ -5355,12 +8863,10 @@
       <c r="G33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H33" s="8"/>
       <c r="I33" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5374,7 +8880,7 @@
       </c>
       <c r="C34" s="8" t="str">
         <f>Achievements!F34</f>
-        <v>Beat Area 2 without Evolving (form level 2 or lower)</v>
+        <v>Beat Area 2 without evolving past the default starting level 1 form in play or score attack mode</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>20</v>
@@ -5388,12 +8894,10 @@
       <c r="G34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H34" s="8"/>
       <c r="I34" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -5407,7 +8911,7 @@
       </c>
       <c r="C35" s="8" t="str">
         <f>Achievements!F35</f>
-        <v>Beat Area 3 without Evolving (form level 2 or lower)</v>
+        <v>Beat Area 3 without evolving past the default starting level 1 form in play or score attack mode</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>20</v>
@@ -5421,12 +8925,10 @@
       <c r="G35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H35" s="8"/>
       <c r="I35" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -5440,7 +8942,7 @@
       </c>
       <c r="C36" s="8" t="str">
         <f>Achievements!F36</f>
-        <v>Beat Area 4 without Evolving (form level 2 or lower)</v>
+        <v>Beat Area 4 without evolving past the default starting level 1 form in play or score attack mode</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>20</v>
@@ -5454,12 +8956,10 @@
       <c r="G36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H36" s="8"/>
       <c r="I36" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5473,7 +8973,7 @@
       </c>
       <c r="C37" s="8" t="str">
         <f>Achievements!F37</f>
-        <v>Beat Lost Area without Evolving (form level 2 or lower)</v>
+        <v>Beat Lost Area without evolving past the default starting level 1 form</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>20</v>
@@ -5487,12 +8987,10 @@
       <c r="G37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H37" s="8"/>
       <c r="I37" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -5520,12 +9018,10 @@
       <c r="G38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H38" s="8"/>
       <c r="I38" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -5553,12 +9049,10 @@
       <c r="G39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H39" s="8"/>
       <c r="I39" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -5586,12 +9080,10 @@
       <c r="G40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H40" s="8"/>
       <c r="I40" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -5619,12 +9111,10 @@
       <c r="G41" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H41" s="8"/>
       <c r="I41" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5652,12 +9142,10 @@
       <c r="G42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H42" s="8"/>
       <c r="I42" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -5685,12 +9173,10 @@
       <c r="G43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H43" s="8"/>
       <c r="I43" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -5718,12 +9204,10 @@
       <c r="G44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H44" s="8"/>
       <c r="I44" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -5751,12 +9235,10 @@
       <c r="G45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="H45" s="8"/>
       <c r="I45" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>YES</v>
+        <v>NO</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -5976,11 +9458,11 @@
       </c>
       <c r="H52" s="8" t="str">
         <f t="shared" si="2"/>
-        <v>50 /50</v>
+        <v>6 /50</v>
       </c>
       <c r="I52" s="8" t="str">
         <f>COUNTIF(I2:I51,"YES")&amp;" /50"</f>
-        <v>50 /50</v>
+        <v>6 /50</v>
       </c>
     </row>
   </sheetData>
@@ -5993,7 +9475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:A76"/>
@@ -6206,31 +9688,31 @@
     <row r="34" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Primal Earth","Beat Area 1 without Evolving (form level 2 or lower)", 10, trigger)</v>
+        <v>achievement("Primal Earth","Beat Area 1 without evolving past the default starting level 1 form in play or score attack mode", 10, trigger)</v>
       </c>
     </row>
     <row r="35" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Primal Mars","Beat Area 2 without Evolving (form level 2 or lower)", 10, trigger)</v>
+        <v>achievement("Primal Mars","Beat Area 2 without evolving past the default starting level 1 form in play or score attack mode", 10, trigger)</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Primal Venus","Beat Area 3 without Evolving (form level 2 or lower)", 10, trigger)</v>
+        <v>achievement("Primal Venus","Beat Area 3 without evolving past the default starting level 1 form in play or score attack mode", 10, trigger)</v>
       </c>
     </row>
     <row r="37" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Primal Uranus","Beat Area 4 without Evolving (form level 2 or lower)", 10, trigger)</v>
+        <v>achievement("Primal Uranus","Beat Area 4 without evolving past the default starting level 1 form in play or score attack mode", 10, trigger)</v>
       </c>
     </row>
     <row r="38" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>achievement("Primal Lost Area","Beat Lost Area without Evolving (form level 2 or lower)", 10, trigger)</v>
+        <v>achievement("Primal Lost Area","Beat Lost Area without evolving past the default starting level 1 form", 10, trigger)</v>
       </c>
     </row>
     <row r="39" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -6467,7 +9949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G11"/>
@@ -6723,1791 +10205,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:V22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="21" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>2</v>
-      </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>5</v>
-      </c>
-      <c r="H1">
-        <v>6</v>
-      </c>
-      <c r="I1">
-        <v>7</v>
-      </c>
-      <c r="J1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8">
-        <v>9</v>
-      </c>
-      <c r="L1" s="8">
-        <v>10</v>
-      </c>
-      <c r="M1" s="8">
-        <v>11</v>
-      </c>
-      <c r="N1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="8">
-        <v>13</v>
-      </c>
-      <c r="P1" s="8">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="8">
-        <v>15</v>
-      </c>
-      <c r="R1" s="8">
-        <v>16</v>
-      </c>
-      <c r="S1" s="8">
-        <v>17</v>
-      </c>
-      <c r="T1" s="8">
-        <v>18</v>
-      </c>
-      <c r="U1" s="8">
-        <v>19</v>
-      </c>
-      <c r="V1" s="8"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>38912</v>
-      </c>
-      <c r="C2" s="8">
-        <f>B2+1</f>
-        <v>38913</v>
-      </c>
-      <c r="D2" s="8">
-        <f t="shared" ref="D2:U5" si="0">C2+1</f>
-        <v>38914</v>
-      </c>
-      <c r="E2" s="8">
-        <f t="shared" si="0"/>
-        <v>38915</v>
-      </c>
-      <c r="F2" s="8">
-        <f t="shared" si="0"/>
-        <v>38916</v>
-      </c>
-      <c r="G2" s="8">
-        <f t="shared" si="0"/>
-        <v>38917</v>
-      </c>
-      <c r="H2" s="8">
-        <f t="shared" si="0"/>
-        <v>38918</v>
-      </c>
-      <c r="I2" s="8">
-        <f t="shared" si="0"/>
-        <v>38919</v>
-      </c>
-      <c r="J2" s="8">
-        <f t="shared" si="0"/>
-        <v>38920</v>
-      </c>
-      <c r="K2" s="8">
-        <f t="shared" si="0"/>
-        <v>38921</v>
-      </c>
-      <c r="L2" s="8">
-        <f t="shared" si="0"/>
-        <v>38922</v>
-      </c>
-      <c r="M2" s="8">
-        <f t="shared" si="0"/>
-        <v>38923</v>
-      </c>
-      <c r="N2" s="8">
-        <f t="shared" si="0"/>
-        <v>38924</v>
-      </c>
-      <c r="O2" s="8">
-        <f t="shared" si="0"/>
-        <v>38925</v>
-      </c>
-      <c r="P2" s="8">
-        <f t="shared" si="0"/>
-        <v>38926</v>
-      </c>
-      <c r="Q2" s="8">
-        <f t="shared" si="0"/>
-        <v>38927</v>
-      </c>
-      <c r="R2" s="8">
-        <f t="shared" si="0"/>
-        <v>38928</v>
-      </c>
-      <c r="S2" s="8">
-        <f t="shared" si="0"/>
-        <v>38929</v>
-      </c>
-      <c r="T2" s="8">
-        <f t="shared" si="0"/>
-        <v>38930</v>
-      </c>
-      <c r="U2" s="8">
-        <f t="shared" si="0"/>
-        <v>38931</v>
-      </c>
-      <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8">
-        <f>B2+32</f>
-        <v>38944</v>
-      </c>
-      <c r="C3" s="8">
-        <f t="shared" ref="C3:R5" si="1">B3+1</f>
-        <v>38945</v>
-      </c>
-      <c r="D3" s="8">
-        <f t="shared" si="1"/>
-        <v>38946</v>
-      </c>
-      <c r="E3" s="8">
-        <f t="shared" si="1"/>
-        <v>38947</v>
-      </c>
-      <c r="F3" s="8">
-        <f t="shared" si="1"/>
-        <v>38948</v>
-      </c>
-      <c r="G3" s="8">
-        <f t="shared" si="1"/>
-        <v>38949</v>
-      </c>
-      <c r="H3" s="8">
-        <f t="shared" si="1"/>
-        <v>38950</v>
-      </c>
-      <c r="I3" s="8">
-        <f t="shared" si="1"/>
-        <v>38951</v>
-      </c>
-      <c r="J3" s="8">
-        <f t="shared" si="1"/>
-        <v>38952</v>
-      </c>
-      <c r="K3" s="8">
-        <f t="shared" si="1"/>
-        <v>38953</v>
-      </c>
-      <c r="L3" s="8">
-        <f t="shared" si="1"/>
-        <v>38954</v>
-      </c>
-      <c r="M3" s="8">
-        <f t="shared" si="1"/>
-        <v>38955</v>
-      </c>
-      <c r="N3" s="8">
-        <f t="shared" si="1"/>
-        <v>38956</v>
-      </c>
-      <c r="O3" s="8">
-        <f t="shared" si="1"/>
-        <v>38957</v>
-      </c>
-      <c r="P3" s="8">
-        <f t="shared" si="1"/>
-        <v>38958</v>
-      </c>
-      <c r="Q3" s="8">
-        <f t="shared" si="1"/>
-        <v>38959</v>
-      </c>
-      <c r="R3" s="8">
-        <f t="shared" si="1"/>
-        <v>38960</v>
-      </c>
-      <c r="S3" s="8">
-        <f t="shared" si="0"/>
-        <v>38961</v>
-      </c>
-      <c r="T3" s="8">
-        <f t="shared" si="0"/>
-        <v>38962</v>
-      </c>
-      <c r="U3" s="8">
-        <f t="shared" si="0"/>
-        <v>38963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8">
-        <f>B3+32</f>
-        <v>38976</v>
-      </c>
-      <c r="C4" s="8">
-        <f t="shared" si="1"/>
-        <v>38977</v>
-      </c>
-      <c r="D4" s="8">
-        <f t="shared" si="0"/>
-        <v>38978</v>
-      </c>
-      <c r="E4" s="8">
-        <f t="shared" si="0"/>
-        <v>38979</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>38980</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>38981</v>
-      </c>
-      <c r="H4" s="8">
-        <f t="shared" si="0"/>
-        <v>38982</v>
-      </c>
-      <c r="I4" s="8">
-        <f t="shared" si="0"/>
-        <v>38983</v>
-      </c>
-      <c r="J4" s="8">
-        <f t="shared" si="0"/>
-        <v>38984</v>
-      </c>
-      <c r="K4" s="8">
-        <f t="shared" si="0"/>
-        <v>38985</v>
-      </c>
-      <c r="L4" s="8">
-        <f t="shared" si="0"/>
-        <v>38986</v>
-      </c>
-      <c r="M4" s="8">
-        <f t="shared" si="0"/>
-        <v>38987</v>
-      </c>
-      <c r="N4" s="8">
-        <f t="shared" si="0"/>
-        <v>38988</v>
-      </c>
-      <c r="O4" s="8">
-        <f t="shared" si="0"/>
-        <v>38989</v>
-      </c>
-      <c r="P4" s="8">
-        <f t="shared" si="0"/>
-        <v>38990</v>
-      </c>
-      <c r="Q4" s="8">
-        <f t="shared" si="0"/>
-        <v>38991</v>
-      </c>
-      <c r="R4" s="8">
-        <f t="shared" si="0"/>
-        <v>38992</v>
-      </c>
-      <c r="S4" s="8">
-        <f t="shared" si="0"/>
-        <v>38993</v>
-      </c>
-      <c r="T4" s="8">
-        <f t="shared" si="0"/>
-        <v>38994</v>
-      </c>
-      <c r="U4" s="8">
-        <f t="shared" si="0"/>
-        <v>38995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8">
-        <f t="shared" ref="B5:B21" si="2">B4+32</f>
-        <v>39008</v>
-      </c>
-      <c r="C5" s="8">
-        <f t="shared" si="1"/>
-        <v>39009</v>
-      </c>
-      <c r="D5" s="8">
-        <f t="shared" si="0"/>
-        <v>39010</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" si="0"/>
-        <v>39011</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>39012</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
-        <v>39013</v>
-      </c>
-      <c r="H5" s="8">
-        <f t="shared" si="0"/>
-        <v>39014</v>
-      </c>
-      <c r="I5" s="8">
-        <f t="shared" si="0"/>
-        <v>39015</v>
-      </c>
-      <c r="J5" s="8">
-        <f t="shared" si="0"/>
-        <v>39016</v>
-      </c>
-      <c r="K5" s="8">
-        <f t="shared" si="0"/>
-        <v>39017</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" si="0"/>
-        <v>39018</v>
-      </c>
-      <c r="M5" s="8">
-        <f t="shared" si="0"/>
-        <v>39019</v>
-      </c>
-      <c r="N5" s="8">
-        <f t="shared" si="0"/>
-        <v>39020</v>
-      </c>
-      <c r="O5" s="8">
-        <f t="shared" si="0"/>
-        <v>39021</v>
-      </c>
-      <c r="P5" s="8">
-        <f t="shared" si="0"/>
-        <v>39022</v>
-      </c>
-      <c r="Q5" s="8">
-        <f t="shared" si="0"/>
-        <v>39023</v>
-      </c>
-      <c r="R5" s="8">
-        <f t="shared" si="0"/>
-        <v>39024</v>
-      </c>
-      <c r="S5" s="8">
-        <f t="shared" si="0"/>
-        <v>39025</v>
-      </c>
-      <c r="T5" s="8">
-        <f t="shared" si="0"/>
-        <v>39026</v>
-      </c>
-      <c r="U5" s="8">
-        <f t="shared" si="0"/>
-        <v>39027</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8">
-        <f t="shared" si="2"/>
-        <v>39040</v>
-      </c>
-      <c r="C6" s="8">
-        <f t="shared" ref="C6:U6" si="3">B6+1</f>
-        <v>39041</v>
-      </c>
-      <c r="D6" s="8">
-        <f t="shared" si="3"/>
-        <v>39042</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="3"/>
-        <v>39043</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="3"/>
-        <v>39044</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="3"/>
-        <v>39045</v>
-      </c>
-      <c r="H6" s="8">
-        <f t="shared" si="3"/>
-        <v>39046</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" si="3"/>
-        <v>39047</v>
-      </c>
-      <c r="J6" s="8">
-        <f t="shared" si="3"/>
-        <v>39048</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="3"/>
-        <v>39049</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" si="3"/>
-        <v>39050</v>
-      </c>
-      <c r="M6" s="8">
-        <f t="shared" si="3"/>
-        <v>39051</v>
-      </c>
-      <c r="N6" s="8">
-        <f t="shared" si="3"/>
-        <v>39052</v>
-      </c>
-      <c r="O6" s="8">
-        <f t="shared" si="3"/>
-        <v>39053</v>
-      </c>
-      <c r="P6" s="8">
-        <f t="shared" si="3"/>
-        <v>39054</v>
-      </c>
-      <c r="Q6" s="8">
-        <f t="shared" si="3"/>
-        <v>39055</v>
-      </c>
-      <c r="R6" s="8">
-        <f t="shared" si="3"/>
-        <v>39056</v>
-      </c>
-      <c r="S6" s="8">
-        <f t="shared" si="3"/>
-        <v>39057</v>
-      </c>
-      <c r="T6" s="8">
-        <f t="shared" si="3"/>
-        <v>39058</v>
-      </c>
-      <c r="U6" s="8">
-        <f t="shared" si="3"/>
-        <v>39059</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8">
-        <f t="shared" si="2"/>
-        <v>39072</v>
-      </c>
-      <c r="C7" s="8">
-        <f t="shared" ref="C7:U7" si="4">B7+1</f>
-        <v>39073</v>
-      </c>
-      <c r="D7" s="8">
-        <f t="shared" si="4"/>
-        <v>39074</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="4"/>
-        <v>39075</v>
-      </c>
-      <c r="F7" s="8">
-        <f t="shared" si="4"/>
-        <v>39076</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="4"/>
-        <v>39077</v>
-      </c>
-      <c r="H7" s="8">
-        <f t="shared" si="4"/>
-        <v>39078</v>
-      </c>
-      <c r="I7" s="8">
-        <f t="shared" si="4"/>
-        <v>39079</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="4"/>
-        <v>39080</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" si="4"/>
-        <v>39081</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="4"/>
-        <v>39082</v>
-      </c>
-      <c r="M7" s="8">
-        <f t="shared" si="4"/>
-        <v>39083</v>
-      </c>
-      <c r="N7" s="8">
-        <f t="shared" si="4"/>
-        <v>39084</v>
-      </c>
-      <c r="O7" s="8">
-        <f t="shared" si="4"/>
-        <v>39085</v>
-      </c>
-      <c r="P7" s="8">
-        <f t="shared" si="4"/>
-        <v>39086</v>
-      </c>
-      <c r="Q7" s="8">
-        <f t="shared" si="4"/>
-        <v>39087</v>
-      </c>
-      <c r="R7" s="8">
-        <f t="shared" si="4"/>
-        <v>39088</v>
-      </c>
-      <c r="S7" s="8">
-        <f t="shared" si="4"/>
-        <v>39089</v>
-      </c>
-      <c r="T7" s="8">
-        <f t="shared" si="4"/>
-        <v>39090</v>
-      </c>
-      <c r="U7" s="8">
-        <f t="shared" si="4"/>
-        <v>39091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <f t="shared" si="2"/>
-        <v>39104</v>
-      </c>
-      <c r="C8" s="8">
-        <f t="shared" ref="C8:U8" si="5">B8+1</f>
-        <v>39105</v>
-      </c>
-      <c r="D8" s="8">
-        <f t="shared" si="5"/>
-        <v>39106</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="5"/>
-        <v>39107</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" si="5"/>
-        <v>39108</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="5"/>
-        <v>39109</v>
-      </c>
-      <c r="H8" s="8">
-        <f t="shared" si="5"/>
-        <v>39110</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" si="5"/>
-        <v>39111</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="5"/>
-        <v>39112</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" si="5"/>
-        <v>39113</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="5"/>
-        <v>39114</v>
-      </c>
-      <c r="M8" s="8">
-        <f t="shared" si="5"/>
-        <v>39115</v>
-      </c>
-      <c r="N8" s="8">
-        <f t="shared" si="5"/>
-        <v>39116</v>
-      </c>
-      <c r="O8" s="8">
-        <f t="shared" si="5"/>
-        <v>39117</v>
-      </c>
-      <c r="P8" s="8">
-        <f t="shared" si="5"/>
-        <v>39118</v>
-      </c>
-      <c r="Q8" s="8">
-        <f t="shared" si="5"/>
-        <v>39119</v>
-      </c>
-      <c r="R8" s="8">
-        <f t="shared" si="5"/>
-        <v>39120</v>
-      </c>
-      <c r="S8" s="8">
-        <f t="shared" si="5"/>
-        <v>39121</v>
-      </c>
-      <c r="T8" s="8">
-        <f t="shared" si="5"/>
-        <v>39122</v>
-      </c>
-      <c r="U8" s="8">
-        <f t="shared" si="5"/>
-        <v>39123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8">
-        <f t="shared" si="2"/>
-        <v>39136</v>
-      </c>
-      <c r="C9" s="8">
-        <f t="shared" ref="C9:U9" si="6">B9+1</f>
-        <v>39137</v>
-      </c>
-      <c r="D9" s="8">
-        <f t="shared" si="6"/>
-        <v>39138</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="6"/>
-        <v>39139</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="6"/>
-        <v>39140</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="6"/>
-        <v>39141</v>
-      </c>
-      <c r="H9" s="8">
-        <f t="shared" si="6"/>
-        <v>39142</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="6"/>
-        <v>39143</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="6"/>
-        <v>39144</v>
-      </c>
-      <c r="K9" s="8">
-        <f t="shared" si="6"/>
-        <v>39145</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="6"/>
-        <v>39146</v>
-      </c>
-      <c r="M9" s="8">
-        <f t="shared" si="6"/>
-        <v>39147</v>
-      </c>
-      <c r="N9" s="8">
-        <f t="shared" si="6"/>
-        <v>39148</v>
-      </c>
-      <c r="O9" s="8">
-        <f t="shared" si="6"/>
-        <v>39149</v>
-      </c>
-      <c r="P9" s="8">
-        <f t="shared" si="6"/>
-        <v>39150</v>
-      </c>
-      <c r="Q9" s="8">
-        <f t="shared" si="6"/>
-        <v>39151</v>
-      </c>
-      <c r="R9" s="8">
-        <f t="shared" si="6"/>
-        <v>39152</v>
-      </c>
-      <c r="S9" s="8">
-        <f t="shared" si="6"/>
-        <v>39153</v>
-      </c>
-      <c r="T9" s="8">
-        <f t="shared" si="6"/>
-        <v>39154</v>
-      </c>
-      <c r="U9" s="8">
-        <f t="shared" si="6"/>
-        <v>39155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8">
-        <f t="shared" si="2"/>
-        <v>39168</v>
-      </c>
-      <c r="C10" s="8">
-        <f t="shared" ref="C10:U10" si="7">B10+1</f>
-        <v>39169</v>
-      </c>
-      <c r="D10" s="8">
-        <f t="shared" si="7"/>
-        <v>39170</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="7"/>
-        <v>39171</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="7"/>
-        <v>39172</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="7"/>
-        <v>39173</v>
-      </c>
-      <c r="H10" s="8">
-        <f t="shared" si="7"/>
-        <v>39174</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="7"/>
-        <v>39175</v>
-      </c>
-      <c r="J10" s="8">
-        <f t="shared" si="7"/>
-        <v>39176</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="7"/>
-        <v>39177</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="7"/>
-        <v>39178</v>
-      </c>
-      <c r="M10" s="8">
-        <f t="shared" si="7"/>
-        <v>39179</v>
-      </c>
-      <c r="N10" s="8">
-        <f t="shared" si="7"/>
-        <v>39180</v>
-      </c>
-      <c r="O10" s="8">
-        <f t="shared" si="7"/>
-        <v>39181</v>
-      </c>
-      <c r="P10" s="8">
-        <f t="shared" si="7"/>
-        <v>39182</v>
-      </c>
-      <c r="Q10" s="8">
-        <f t="shared" si="7"/>
-        <v>39183</v>
-      </c>
-      <c r="R10" s="8">
-        <f t="shared" si="7"/>
-        <v>39184</v>
-      </c>
-      <c r="S10" s="8">
-        <f t="shared" si="7"/>
-        <v>39185</v>
-      </c>
-      <c r="T10" s="8">
-        <f t="shared" si="7"/>
-        <v>39186</v>
-      </c>
-      <c r="U10" s="8">
-        <f t="shared" si="7"/>
-        <v>39187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8">
-        <f t="shared" si="2"/>
-        <v>39200</v>
-      </c>
-      <c r="C11" s="8">
-        <f t="shared" ref="C11:U11" si="8">B11+1</f>
-        <v>39201</v>
-      </c>
-      <c r="D11" s="8">
-        <f t="shared" si="8"/>
-        <v>39202</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="8"/>
-        <v>39203</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="8"/>
-        <v>39204</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="8"/>
-        <v>39205</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="8"/>
-        <v>39206</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="8"/>
-        <v>39207</v>
-      </c>
-      <c r="J11" s="8">
-        <f t="shared" si="8"/>
-        <v>39208</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" si="8"/>
-        <v>39209</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="8"/>
-        <v>39210</v>
-      </c>
-      <c r="M11" s="8">
-        <f t="shared" si="8"/>
-        <v>39211</v>
-      </c>
-      <c r="N11" s="8">
-        <f t="shared" si="8"/>
-        <v>39212</v>
-      </c>
-      <c r="O11" s="8">
-        <f t="shared" si="8"/>
-        <v>39213</v>
-      </c>
-      <c r="P11" s="8">
-        <f t="shared" si="8"/>
-        <v>39214</v>
-      </c>
-      <c r="Q11" s="8">
-        <f t="shared" si="8"/>
-        <v>39215</v>
-      </c>
-      <c r="R11" s="8">
-        <f t="shared" si="8"/>
-        <v>39216</v>
-      </c>
-      <c r="S11" s="8">
-        <f t="shared" si="8"/>
-        <v>39217</v>
-      </c>
-      <c r="T11" s="8">
-        <f t="shared" si="8"/>
-        <v>39218</v>
-      </c>
-      <c r="U11" s="8">
-        <f t="shared" si="8"/>
-        <v>39219</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8">
-        <f t="shared" si="2"/>
-        <v>39232</v>
-      </c>
-      <c r="C12" s="8">
-        <f t="shared" ref="C12:U12" si="9">B12+1</f>
-        <v>39233</v>
-      </c>
-      <c r="D12" s="8">
-        <f t="shared" si="9"/>
-        <v>39234</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="9"/>
-        <v>39235</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="9"/>
-        <v>39236</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="9"/>
-        <v>39237</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="9"/>
-        <v>39238</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="9"/>
-        <v>39239</v>
-      </c>
-      <c r="J12" s="8">
-        <f t="shared" si="9"/>
-        <v>39240</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="9"/>
-        <v>39241</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="9"/>
-        <v>39242</v>
-      </c>
-      <c r="M12" s="8">
-        <f t="shared" si="9"/>
-        <v>39243</v>
-      </c>
-      <c r="N12" s="8">
-        <f t="shared" si="9"/>
-        <v>39244</v>
-      </c>
-      <c r="O12" s="8">
-        <f t="shared" si="9"/>
-        <v>39245</v>
-      </c>
-      <c r="P12" s="8">
-        <f t="shared" si="9"/>
-        <v>39246</v>
-      </c>
-      <c r="Q12" s="8">
-        <f t="shared" si="9"/>
-        <v>39247</v>
-      </c>
-      <c r="R12" s="8">
-        <f t="shared" si="9"/>
-        <v>39248</v>
-      </c>
-      <c r="S12" s="8">
-        <f t="shared" si="9"/>
-        <v>39249</v>
-      </c>
-      <c r="T12" s="8">
-        <f t="shared" si="9"/>
-        <v>39250</v>
-      </c>
-      <c r="U12" s="8">
-        <f t="shared" si="9"/>
-        <v>39251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>11</v>
-      </c>
-      <c r="B13" s="8">
-        <f t="shared" si="2"/>
-        <v>39264</v>
-      </c>
-      <c r="C13" s="8">
-        <f t="shared" ref="C13:U13" si="10">B13+1</f>
-        <v>39265</v>
-      </c>
-      <c r="D13" s="8">
-        <f t="shared" si="10"/>
-        <v>39266</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="10"/>
-        <v>39267</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="10"/>
-        <v>39268</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="10"/>
-        <v>39269</v>
-      </c>
-      <c r="H13" s="8">
-        <f t="shared" si="10"/>
-        <v>39270</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="10"/>
-        <v>39271</v>
-      </c>
-      <c r="J13" s="8">
-        <f t="shared" si="10"/>
-        <v>39272</v>
-      </c>
-      <c r="K13" s="8">
-        <f t="shared" si="10"/>
-        <v>39273</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="10"/>
-        <v>39274</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="10"/>
-        <v>39275</v>
-      </c>
-      <c r="N13" s="8">
-        <f t="shared" si="10"/>
-        <v>39276</v>
-      </c>
-      <c r="O13" s="8">
-        <f t="shared" si="10"/>
-        <v>39277</v>
-      </c>
-      <c r="P13" s="8">
-        <f t="shared" si="10"/>
-        <v>39278</v>
-      </c>
-      <c r="Q13" s="8">
-        <f t="shared" si="10"/>
-        <v>39279</v>
-      </c>
-      <c r="R13" s="8">
-        <f t="shared" si="10"/>
-        <v>39280</v>
-      </c>
-      <c r="S13" s="8">
-        <f t="shared" si="10"/>
-        <v>39281</v>
-      </c>
-      <c r="T13" s="8">
-        <f t="shared" si="10"/>
-        <v>39282</v>
-      </c>
-      <c r="U13" s="8">
-        <f t="shared" si="10"/>
-        <v>39283</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8">
-        <f t="shared" si="2"/>
-        <v>39296</v>
-      </c>
-      <c r="C14" s="8">
-        <f t="shared" ref="C14:U14" si="11">B14+1</f>
-        <v>39297</v>
-      </c>
-      <c r="D14" s="8">
-        <f t="shared" si="11"/>
-        <v>39298</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="11"/>
-        <v>39299</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="11"/>
-        <v>39300</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="11"/>
-        <v>39301</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" si="11"/>
-        <v>39302</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="11"/>
-        <v>39303</v>
-      </c>
-      <c r="J14" s="8">
-        <f t="shared" si="11"/>
-        <v>39304</v>
-      </c>
-      <c r="K14" s="8">
-        <f t="shared" si="11"/>
-        <v>39305</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="11"/>
-        <v>39306</v>
-      </c>
-      <c r="M14" s="8">
-        <f t="shared" si="11"/>
-        <v>39307</v>
-      </c>
-      <c r="N14" s="8">
-        <f t="shared" si="11"/>
-        <v>39308</v>
-      </c>
-      <c r="O14" s="8">
-        <f t="shared" si="11"/>
-        <v>39309</v>
-      </c>
-      <c r="P14" s="8">
-        <f t="shared" si="11"/>
-        <v>39310</v>
-      </c>
-      <c r="Q14" s="8">
-        <f t="shared" si="11"/>
-        <v>39311</v>
-      </c>
-      <c r="R14" s="8">
-        <f t="shared" si="11"/>
-        <v>39312</v>
-      </c>
-      <c r="S14" s="8">
-        <f t="shared" si="11"/>
-        <v>39313</v>
-      </c>
-      <c r="T14" s="8">
-        <f t="shared" si="11"/>
-        <v>39314</v>
-      </c>
-      <c r="U14" s="8">
-        <f t="shared" si="11"/>
-        <v>39315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8">
-        <f t="shared" si="2"/>
-        <v>39328</v>
-      </c>
-      <c r="C15" s="8">
-        <f t="shared" ref="C15:U15" si="12">B15+1</f>
-        <v>39329</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="12"/>
-        <v>39330</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="12"/>
-        <v>39331</v>
-      </c>
-      <c r="F15" s="8">
-        <f t="shared" si="12"/>
-        <v>39332</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="12"/>
-        <v>39333</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="12"/>
-        <v>39334</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="12"/>
-        <v>39335</v>
-      </c>
-      <c r="J15" s="8">
-        <f t="shared" si="12"/>
-        <v>39336</v>
-      </c>
-      <c r="K15" s="8">
-        <f t="shared" si="12"/>
-        <v>39337</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="12"/>
-        <v>39338</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="12"/>
-        <v>39339</v>
-      </c>
-      <c r="N15" s="8">
-        <f t="shared" si="12"/>
-        <v>39340</v>
-      </c>
-      <c r="O15" s="8">
-        <f t="shared" si="12"/>
-        <v>39341</v>
-      </c>
-      <c r="P15" s="8">
-        <f t="shared" si="12"/>
-        <v>39342</v>
-      </c>
-      <c r="Q15" s="8">
-        <f t="shared" si="12"/>
-        <v>39343</v>
-      </c>
-      <c r="R15" s="8">
-        <f t="shared" si="12"/>
-        <v>39344</v>
-      </c>
-      <c r="S15" s="8">
-        <f t="shared" si="12"/>
-        <v>39345</v>
-      </c>
-      <c r="T15" s="8">
-        <f t="shared" si="12"/>
-        <v>39346</v>
-      </c>
-      <c r="U15" s="8">
-        <f t="shared" si="12"/>
-        <v>39347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" s="8">
-        <f t="shared" si="2"/>
-        <v>39360</v>
-      </c>
-      <c r="C16" s="8">
-        <f t="shared" ref="C16:U16" si="13">B16+1</f>
-        <v>39361</v>
-      </c>
-      <c r="D16" s="8">
-        <f t="shared" si="13"/>
-        <v>39362</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="13"/>
-        <v>39363</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="13"/>
-        <v>39364</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="13"/>
-        <v>39365</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="13"/>
-        <v>39366</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="13"/>
-        <v>39367</v>
-      </c>
-      <c r="J16" s="8">
-        <f t="shared" si="13"/>
-        <v>39368</v>
-      </c>
-      <c r="K16" s="8">
-        <f t="shared" si="13"/>
-        <v>39369</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="13"/>
-        <v>39370</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="13"/>
-        <v>39371</v>
-      </c>
-      <c r="N16" s="8">
-        <f t="shared" si="13"/>
-        <v>39372</v>
-      </c>
-      <c r="O16" s="8">
-        <f t="shared" si="13"/>
-        <v>39373</v>
-      </c>
-      <c r="P16" s="8">
-        <f t="shared" si="13"/>
-        <v>39374</v>
-      </c>
-      <c r="Q16" s="8">
-        <f t="shared" si="13"/>
-        <v>39375</v>
-      </c>
-      <c r="R16" s="8">
-        <f t="shared" si="13"/>
-        <v>39376</v>
-      </c>
-      <c r="S16" s="8">
-        <f t="shared" si="13"/>
-        <v>39377</v>
-      </c>
-      <c r="T16" s="8">
-        <f t="shared" si="13"/>
-        <v>39378</v>
-      </c>
-      <c r="U16" s="8">
-        <f t="shared" si="13"/>
-        <v>39379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <v>15</v>
-      </c>
-      <c r="B17" s="8">
-        <f t="shared" si="2"/>
-        <v>39392</v>
-      </c>
-      <c r="C17" s="8">
-        <f t="shared" ref="C17:U17" si="14">B17+1</f>
-        <v>39393</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" si="14"/>
-        <v>39394</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="14"/>
-        <v>39395</v>
-      </c>
-      <c r="F17" s="8">
-        <f t="shared" si="14"/>
-        <v>39396</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="14"/>
-        <v>39397</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="14"/>
-        <v>39398</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="14"/>
-        <v>39399</v>
-      </c>
-      <c r="J17" s="8">
-        <f t="shared" si="14"/>
-        <v>39400</v>
-      </c>
-      <c r="K17" s="8">
-        <f t="shared" si="14"/>
-        <v>39401</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="14"/>
-        <v>39402</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="14"/>
-        <v>39403</v>
-      </c>
-      <c r="N17" s="8">
-        <f t="shared" si="14"/>
-        <v>39404</v>
-      </c>
-      <c r="O17" s="8">
-        <f t="shared" si="14"/>
-        <v>39405</v>
-      </c>
-      <c r="P17" s="8">
-        <f t="shared" si="14"/>
-        <v>39406</v>
-      </c>
-      <c r="Q17" s="8">
-        <f t="shared" si="14"/>
-        <v>39407</v>
-      </c>
-      <c r="R17" s="8">
-        <f t="shared" si="14"/>
-        <v>39408</v>
-      </c>
-      <c r="S17" s="8">
-        <f t="shared" si="14"/>
-        <v>39409</v>
-      </c>
-      <c r="T17" s="8">
-        <f t="shared" si="14"/>
-        <v>39410</v>
-      </c>
-      <c r="U17" s="8">
-        <f t="shared" si="14"/>
-        <v>39411</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8">
-        <f t="shared" si="2"/>
-        <v>39424</v>
-      </c>
-      <c r="C18" s="8">
-        <f t="shared" ref="C18:U18" si="15">B18+1</f>
-        <v>39425</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="15"/>
-        <v>39426</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="15"/>
-        <v>39427</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" si="15"/>
-        <v>39428</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="15"/>
-        <v>39429</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="15"/>
-        <v>39430</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="15"/>
-        <v>39431</v>
-      </c>
-      <c r="J18" s="8">
-        <f t="shared" si="15"/>
-        <v>39432</v>
-      </c>
-      <c r="K18" s="8">
-        <f t="shared" si="15"/>
-        <v>39433</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="15"/>
-        <v>39434</v>
-      </c>
-      <c r="M18" s="8">
-        <f t="shared" si="15"/>
-        <v>39435</v>
-      </c>
-      <c r="N18" s="8">
-        <f t="shared" si="15"/>
-        <v>39436</v>
-      </c>
-      <c r="O18" s="8">
-        <f t="shared" si="15"/>
-        <v>39437</v>
-      </c>
-      <c r="P18" s="8">
-        <f t="shared" si="15"/>
-        <v>39438</v>
-      </c>
-      <c r="Q18" s="8">
-        <f t="shared" si="15"/>
-        <v>39439</v>
-      </c>
-      <c r="R18" s="8">
-        <f t="shared" si="15"/>
-        <v>39440</v>
-      </c>
-      <c r="S18" s="8">
-        <f t="shared" si="15"/>
-        <v>39441</v>
-      </c>
-      <c r="T18" s="8">
-        <f t="shared" si="15"/>
-        <v>39442</v>
-      </c>
-      <c r="U18" s="8">
-        <f t="shared" si="15"/>
-        <v>39443</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8">
-        <f t="shared" si="2"/>
-        <v>39456</v>
-      </c>
-      <c r="C19" s="8">
-        <f t="shared" ref="C19:U19" si="16">B19+1</f>
-        <v>39457</v>
-      </c>
-      <c r="D19" s="8">
-        <f t="shared" si="16"/>
-        <v>39458</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="16"/>
-        <v>39459</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="16"/>
-        <v>39460</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="16"/>
-        <v>39461</v>
-      </c>
-      <c r="H19" s="8">
-        <f t="shared" si="16"/>
-        <v>39462</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="16"/>
-        <v>39463</v>
-      </c>
-      <c r="J19" s="8">
-        <f t="shared" si="16"/>
-        <v>39464</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="16"/>
-        <v>39465</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="16"/>
-        <v>39466</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="16"/>
-        <v>39467</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" si="16"/>
-        <v>39468</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="16"/>
-        <v>39469</v>
-      </c>
-      <c r="P19" s="8">
-        <f t="shared" si="16"/>
-        <v>39470</v>
-      </c>
-      <c r="Q19" s="8">
-        <f t="shared" si="16"/>
-        <v>39471</v>
-      </c>
-      <c r="R19" s="8">
-        <f t="shared" si="16"/>
-        <v>39472</v>
-      </c>
-      <c r="S19" s="8">
-        <f t="shared" si="16"/>
-        <v>39473</v>
-      </c>
-      <c r="T19" s="8">
-        <f t="shared" si="16"/>
-        <v>39474</v>
-      </c>
-      <c r="U19" s="8">
-        <f t="shared" si="16"/>
-        <v>39475</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8">
-        <f t="shared" si="2"/>
-        <v>39488</v>
-      </c>
-      <c r="C20" s="8">
-        <f t="shared" ref="C20:U20" si="17">B20+1</f>
-        <v>39489</v>
-      </c>
-      <c r="D20" s="8">
-        <f t="shared" si="17"/>
-        <v>39490</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="17"/>
-        <v>39491</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" si="17"/>
-        <v>39492</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="17"/>
-        <v>39493</v>
-      </c>
-      <c r="H20" s="8">
-        <f t="shared" si="17"/>
-        <v>39494</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="17"/>
-        <v>39495</v>
-      </c>
-      <c r="J20" s="8">
-        <f t="shared" si="17"/>
-        <v>39496</v>
-      </c>
-      <c r="K20" s="8">
-        <f t="shared" si="17"/>
-        <v>39497</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="17"/>
-        <v>39498</v>
-      </c>
-      <c r="M20" s="8">
-        <f t="shared" si="17"/>
-        <v>39499</v>
-      </c>
-      <c r="N20" s="8">
-        <f t="shared" si="17"/>
-        <v>39500</v>
-      </c>
-      <c r="O20" s="8">
-        <f t="shared" si="17"/>
-        <v>39501</v>
-      </c>
-      <c r="P20" s="8">
-        <f t="shared" si="17"/>
-        <v>39502</v>
-      </c>
-      <c r="Q20" s="8">
-        <f t="shared" si="17"/>
-        <v>39503</v>
-      </c>
-      <c r="R20" s="8">
-        <f t="shared" si="17"/>
-        <v>39504</v>
-      </c>
-      <c r="S20" s="8">
-        <f t="shared" si="17"/>
-        <v>39505</v>
-      </c>
-      <c r="T20" s="8">
-        <f t="shared" si="17"/>
-        <v>39506</v>
-      </c>
-      <c r="U20" s="8">
-        <f t="shared" si="17"/>
-        <v>39507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8">
-        <f t="shared" si="2"/>
-        <v>39520</v>
-      </c>
-      <c r="C21" s="8">
-        <f t="shared" ref="C21:U21" si="18">B21+1</f>
-        <v>39521</v>
-      </c>
-      <c r="D21" s="8">
-        <f t="shared" si="18"/>
-        <v>39522</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="18"/>
-        <v>39523</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" si="18"/>
-        <v>39524</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="18"/>
-        <v>39525</v>
-      </c>
-      <c r="H21" s="8">
-        <f t="shared" si="18"/>
-        <v>39526</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="18"/>
-        <v>39527</v>
-      </c>
-      <c r="J21" s="8">
-        <f t="shared" si="18"/>
-        <v>39528</v>
-      </c>
-      <c r="K21" s="8">
-        <f t="shared" si="18"/>
-        <v>39529</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" si="18"/>
-        <v>39530</v>
-      </c>
-      <c r="M21" s="8">
-        <f t="shared" si="18"/>
-        <v>39531</v>
-      </c>
-      <c r="N21" s="8">
-        <f t="shared" si="18"/>
-        <v>39532</v>
-      </c>
-      <c r="O21" s="8">
-        <f t="shared" si="18"/>
-        <v>39533</v>
-      </c>
-      <c r="P21" s="8">
-        <f t="shared" si="18"/>
-        <v>39534</v>
-      </c>
-      <c r="Q21" s="8">
-        <f t="shared" si="18"/>
-        <v>39535</v>
-      </c>
-      <c r="R21" s="8">
-        <f t="shared" si="18"/>
-        <v>39536</v>
-      </c>
-      <c r="S21" s="8">
-        <f t="shared" si="18"/>
-        <v>39537</v>
-      </c>
-      <c r="T21" s="8">
-        <f t="shared" si="18"/>
-        <v>39538</v>
-      </c>
-      <c r="U21" s="8">
-        <f t="shared" si="18"/>
-        <v>39539</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>